--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4367.059962638098</v>
+        <v>4574.090197529109</v>
       </c>
       <c r="AB2" t="n">
-        <v>5975.204101970001</v>
+        <v>6258.472002877251</v>
       </c>
       <c r="AC2" t="n">
-        <v>5404.939008729386</v>
+        <v>5661.172218743034</v>
       </c>
       <c r="AD2" t="n">
-        <v>4367059.962638098</v>
+        <v>4574090.197529109</v>
       </c>
       <c r="AE2" t="n">
-        <v>5975204.101970001</v>
+        <v>6258472.002877251</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.404909905196807e-07</v>
+        <v>9.233730686599172e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.45442708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5404939.008729386</v>
+        <v>5661172.218743034</v>
       </c>
     </row>
     <row r="3">
@@ -6208,28 +6208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2086.882148890536</v>
+        <v>2216.29741447677</v>
       </c>
       <c r="AB3" t="n">
-        <v>2855.364222854695</v>
+        <v>3032.435898628523</v>
       </c>
       <c r="AC3" t="n">
-        <v>2582.852268954299</v>
+        <v>2743.024472513816</v>
       </c>
       <c r="AD3" t="n">
-        <v>2086882.148890536</v>
+        <v>2216297.41447677</v>
       </c>
       <c r="AE3" t="n">
-        <v>2855364.222854695</v>
+        <v>3032435.898628523</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.01208780426142e-06</v>
+        <v>1.45909097146844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.029296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2582852.268954299</v>
+        <v>2743024.472513816</v>
       </c>
     </row>
     <row r="4">
@@ -6314,28 +6314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1698.810132937698</v>
+        <v>1810.958662932962</v>
       </c>
       <c r="AB4" t="n">
-        <v>2324.386970098984</v>
+        <v>2477.833536482462</v>
       </c>
       <c r="AC4" t="n">
-        <v>2102.550739970338</v>
+        <v>2241.352581421786</v>
       </c>
       <c r="AD4" t="n">
-        <v>1698810.132937697</v>
+        <v>1810958.662932962</v>
       </c>
       <c r="AE4" t="n">
-        <v>2324386.970098984</v>
+        <v>2477833.536482462</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.15409754137227e-06</v>
+        <v>1.663821355933708e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.33463541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2102550.739970339</v>
+        <v>2241352.581421786</v>
       </c>
     </row>
     <row r="5">
@@ -6420,28 +6420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1534.987218226668</v>
+        <v>1647.135658713382</v>
       </c>
       <c r="AB5" t="n">
-        <v>2100.237230834438</v>
+        <v>2253.683674748368</v>
       </c>
       <c r="AC5" t="n">
-        <v>1899.793537225066</v>
+        <v>2038.595267895286</v>
       </c>
       <c r="AD5" t="n">
-        <v>1534987.218226668</v>
+        <v>1647135.658713382</v>
       </c>
       <c r="AE5" t="n">
-        <v>2100237.230834438</v>
+        <v>2253683.674748368</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.229070466355842e-06</v>
+        <v>1.771907153912412e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.7265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1899793.537225066</v>
+        <v>2038595.267895286</v>
       </c>
     </row>
     <row r="6">
@@ -6526,28 +6526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1442.844345489721</v>
+        <v>1554.907445121863</v>
       </c>
       <c r="AB6" t="n">
-        <v>1974.1632872991</v>
+        <v>2127.492964090832</v>
       </c>
       <c r="AC6" t="n">
-        <v>1785.751913914849</v>
+        <v>1924.448021553131</v>
       </c>
       <c r="AD6" t="n">
-        <v>1442844.345489721</v>
+        <v>1554907.445121863</v>
       </c>
       <c r="AE6" t="n">
-        <v>1974163.2872991</v>
+        <v>2127492.964090832</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.276593777459999e-06</v>
+        <v>1.84041982037712e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.80859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1785751.913914849</v>
+        <v>1924448.021553131</v>
       </c>
     </row>
     <row r="7">
@@ -6632,28 +6632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1386.720700636822</v>
+        <v>1490.150521982032</v>
       </c>
       <c r="AB7" t="n">
-        <v>1897.3724404109</v>
+        <v>2038.889684977093</v>
       </c>
       <c r="AC7" t="n">
-        <v>1716.289877677028</v>
+        <v>1844.300915042524</v>
       </c>
       <c r="AD7" t="n">
-        <v>1386720.700636822</v>
+        <v>1490150.521982032</v>
       </c>
       <c r="AE7" t="n">
-        <v>1897372.4404109</v>
+        <v>2038889.684977093</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.309178523187604e-06</v>
+        <v>1.887396088738973e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.21614583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1716289.877677028</v>
+        <v>1844300.915042524</v>
       </c>
     </row>
     <row r="8">
@@ -6738,28 +6738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1338.12993841622</v>
+        <v>1441.64501110745</v>
       </c>
       <c r="AB8" t="n">
-        <v>1830.888415867535</v>
+        <v>1972.522305086377</v>
       </c>
       <c r="AC8" t="n">
-        <v>1656.150995125168</v>
+        <v>1784.267544741376</v>
       </c>
       <c r="AD8" t="n">
-        <v>1338129.93841622</v>
+        <v>1441645.01110745</v>
       </c>
       <c r="AE8" t="n">
-        <v>1830888.415867535</v>
+        <v>1972522.305086377</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.332986861756484e-06</v>
+        <v>1.921719723215399e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.79947916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1656150.995125168</v>
+        <v>1784267.544741376</v>
       </c>
     </row>
     <row r="9">
@@ -6844,28 +6844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1306.440968810463</v>
+        <v>1409.785449301101</v>
       </c>
       <c r="AB9" t="n">
-        <v>1787.530169634267</v>
+        <v>1928.930647078263</v>
       </c>
       <c r="AC9" t="n">
-        <v>1616.930799058722</v>
+        <v>1744.836213392279</v>
       </c>
       <c r="AD9" t="n">
-        <v>1306440.968810463</v>
+        <v>1409785.449301101</v>
       </c>
       <c r="AE9" t="n">
-        <v>1787530.169634267</v>
+        <v>1928930.647078263</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.351473336409968e-06</v>
+        <v>1.948371015867682e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.490234375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1616930.799058722</v>
+        <v>1744836.213392279</v>
       </c>
     </row>
     <row r="10">
@@ -6950,28 +6950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1288.223614469179</v>
+        <v>1383.105408873476</v>
       </c>
       <c r="AB10" t="n">
-        <v>1762.60438173157</v>
+        <v>1892.425838724874</v>
       </c>
       <c r="AC10" t="n">
-        <v>1594.383893369895</v>
+        <v>1711.815372713318</v>
       </c>
       <c r="AD10" t="n">
-        <v>1288223.614469178</v>
+        <v>1383105.408873476</v>
       </c>
       <c r="AE10" t="n">
-        <v>1762604.38173157</v>
+        <v>1892425.838724874</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.361090037871123e-06</v>
+        <v>1.962235072146395e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.33072916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1594383.893369895</v>
+        <v>1711815.372713318</v>
       </c>
     </row>
     <row r="11">
@@ -7056,28 +7056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1265.353384815419</v>
+        <v>1360.235179219717</v>
       </c>
       <c r="AB11" t="n">
-        <v>1731.312324555973</v>
+        <v>1861.133781549278</v>
       </c>
       <c r="AC11" t="n">
-        <v>1566.07830621246</v>
+        <v>1683.509785555882</v>
       </c>
       <c r="AD11" t="n">
-        <v>1265353.384815419</v>
+        <v>1360235.179219717</v>
       </c>
       <c r="AE11" t="n">
-        <v>1731312.324555974</v>
+        <v>1861133.781549278</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.373320988273175e-06</v>
+        <v>1.979867998093108e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.13216145833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1566078.30621246</v>
+        <v>1683509.785555882</v>
       </c>
     </row>
     <row r="12">
@@ -7162,28 +7162,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1236.949589149907</v>
+        <v>1340.379320986566</v>
       </c>
       <c r="AB12" t="n">
-        <v>1692.448998239393</v>
+        <v>1833.966120336038</v>
       </c>
       <c r="AC12" t="n">
-        <v>1530.924041214512</v>
+        <v>1658.934967798782</v>
       </c>
       <c r="AD12" t="n">
-        <v>1236949.589149907</v>
+        <v>1340379.320986565</v>
       </c>
       <c r="AE12" t="n">
-        <v>1692448.998239393</v>
+        <v>1833966.120336038</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.383124421801538e-06</v>
+        <v>1.994001259348107e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.97265625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1530924.041214512</v>
+        <v>1658934.967798782</v>
       </c>
     </row>
     <row r="13">
@@ -7268,28 +7268,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1219.769422704581</v>
+        <v>1323.19915454124</v>
       </c>
       <c r="AB13" t="n">
-        <v>1668.942336573448</v>
+        <v>1810.459458670093</v>
       </c>
       <c r="AC13" t="n">
-        <v>1509.660822346158</v>
+        <v>1637.671748930427</v>
       </c>
       <c r="AD13" t="n">
-        <v>1219769.422704581</v>
+        <v>1323199.15454124</v>
       </c>
       <c r="AE13" t="n">
-        <v>1668942.336573448</v>
+        <v>1810459.458670093</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.391153900691435e-06</v>
+        <v>2.005577073328391e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.845703125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1509660.822346158</v>
+        <v>1637671.748930427</v>
       </c>
     </row>
     <row r="14">
@@ -7374,28 +7374,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1202.425381022299</v>
+        <v>1297.392426772618</v>
       </c>
       <c r="AB14" t="n">
-        <v>1645.211453578633</v>
+        <v>1775.149555224586</v>
       </c>
       <c r="AC14" t="n">
-        <v>1488.194781517865</v>
+        <v>1605.731773111999</v>
       </c>
       <c r="AD14" t="n">
-        <v>1202425.381022299</v>
+        <v>1297392.426772618</v>
       </c>
       <c r="AE14" t="n">
-        <v>1645211.453578633</v>
+        <v>1775149.555224586</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.39778288907728e-06</v>
+        <v>2.015133849986534e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.74153645833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1488194.781517865</v>
+        <v>1605731.773112</v>
       </c>
     </row>
     <row r="15">
@@ -7480,28 +7480,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1186.981635513418</v>
+        <v>1281.948681263736</v>
       </c>
       <c r="AB15" t="n">
-        <v>1624.080639643415</v>
+        <v>1754.018741289368</v>
       </c>
       <c r="AC15" t="n">
-        <v>1469.080662807341</v>
+        <v>1586.617654401475</v>
       </c>
       <c r="AD15" t="n">
-        <v>1186981.635513418</v>
+        <v>1281948.681263736</v>
       </c>
       <c r="AE15" t="n">
-        <v>1624080.639643415</v>
+        <v>1754018.741289368</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.404411877463125e-06</v>
+        <v>2.024690626644675e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1469080.662807341</v>
+        <v>1586617.654401475</v>
       </c>
     </row>
     <row r="16">
@@ -7586,28 +7586,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1172.477056360296</v>
+        <v>1267.444102110614</v>
       </c>
       <c r="AB16" t="n">
-        <v>1604.234834549243</v>
+        <v>1734.172936195197</v>
       </c>
       <c r="AC16" t="n">
-        <v>1451.128913497595</v>
+        <v>1568.665905091729</v>
       </c>
       <c r="AD16" t="n">
-        <v>1172477.056360296</v>
+        <v>1267444.102110615</v>
       </c>
       <c r="AE16" t="n">
-        <v>1604234.834549244</v>
+        <v>1734172.936195197</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.409266911210505e-06</v>
+        <v>2.031689956028104e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.56575520833333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1451128.913497595</v>
+        <v>1568665.905091729</v>
       </c>
     </row>
     <row r="17">
@@ -7692,28 +7692,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1160.686636325932</v>
+        <v>1255.65368207625</v>
       </c>
       <c r="AB17" t="n">
-        <v>1588.102661701605</v>
+        <v>1718.040763347559</v>
       </c>
       <c r="AC17" t="n">
-        <v>1436.536372584888</v>
+        <v>1554.073364179023</v>
       </c>
       <c r="AD17" t="n">
-        <v>1160686.636325932</v>
+        <v>1255653.68207625</v>
       </c>
       <c r="AE17" t="n">
-        <v>1588102.661701605</v>
+        <v>1718040.763347559</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.413188284621849e-06</v>
+        <v>2.037343260530103e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.50716145833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1436536.372584888</v>
+        <v>1554073.364179023</v>
       </c>
     </row>
     <row r="18">
@@ -7798,28 +7798,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1148.330510879868</v>
+        <v>1243.126964429594</v>
       </c>
       <c r="AB18" t="n">
-        <v>1571.196465752518</v>
+        <v>1700.901155623625</v>
       </c>
       <c r="AC18" t="n">
-        <v>1421.243680249186</v>
+        <v>1538.56953656067</v>
       </c>
       <c r="AD18" t="n">
-        <v>1148330.510879868</v>
+        <v>1243126.964429594</v>
       </c>
       <c r="AE18" t="n">
-        <v>1571196.465752518</v>
+        <v>1700901.155623625</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.416642827865177e-06</v>
+        <v>2.042323552591388e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.455078125</v>
       </c>
       <c r="AH18" t="n">
-        <v>1421243.680249186</v>
+        <v>1538569.53656067</v>
       </c>
     </row>
     <row r="19">
@@ -7904,28 +7904,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1137.264475923952</v>
+        <v>1232.060929473678</v>
       </c>
       <c r="AB19" t="n">
-        <v>1556.055428526827</v>
+        <v>1685.760118397933</v>
       </c>
       <c r="AC19" t="n">
-        <v>1407.547682365736</v>
+        <v>1524.87353867722</v>
       </c>
       <c r="AD19" t="n">
-        <v>1137264.475923952</v>
+        <v>1232060.929473678</v>
       </c>
       <c r="AE19" t="n">
-        <v>1556055.428526827</v>
+        <v>1685760.118397933</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.420097371108505e-06</v>
+        <v>2.047303844652673e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.40299479166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1407547.682365736</v>
+        <v>1524873.53867722</v>
       </c>
     </row>
     <row r="20">
@@ -8010,28 +8010,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1123.436844669339</v>
+        <v>1218.233298219065</v>
       </c>
       <c r="AB20" t="n">
-        <v>1537.135853412229</v>
+        <v>1666.840543283335</v>
       </c>
       <c r="AC20" t="n">
-        <v>1390.433764946285</v>
+        <v>1507.759621257768</v>
       </c>
       <c r="AD20" t="n">
-        <v>1123436.844669339</v>
+        <v>1218233.298219065</v>
       </c>
       <c r="AE20" t="n">
-        <v>1537135.853412229</v>
+        <v>1666840.543283335</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.423832012452643e-06</v>
+        <v>2.052687944178387e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.34440104166667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1390433.764946284</v>
+        <v>1507759.621257768</v>
       </c>
     </row>
     <row r="21">
@@ -8116,28 +8116,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1109.331046759164</v>
+        <v>1204.12750030889</v>
       </c>
       <c r="AB21" t="n">
-        <v>1517.835678407643</v>
+        <v>1647.54036827875</v>
       </c>
       <c r="AC21" t="n">
-        <v>1372.975571556171</v>
+        <v>1490.301427867655</v>
       </c>
       <c r="AD21" t="n">
-        <v>1109331.046759164</v>
+        <v>1204127.50030889</v>
       </c>
       <c r="AE21" t="n">
-        <v>1517835.678407643</v>
+        <v>1647540.36827875</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.426913091561557e-06</v>
+        <v>2.057129826287101e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.298828125</v>
       </c>
       <c r="AH21" t="n">
-        <v>1372975.571556171</v>
+        <v>1490301.427867655</v>
       </c>
     </row>
     <row r="22">
@@ -8222,28 +8222,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1101.279626652495</v>
+        <v>1196.076080202221</v>
       </c>
       <c r="AB22" t="n">
-        <v>1506.819370214113</v>
+        <v>1636.52406008522</v>
       </c>
       <c r="AC22" t="n">
-        <v>1363.010644355146</v>
+        <v>1480.336500666629</v>
       </c>
       <c r="AD22" t="n">
-        <v>1101279.626652495</v>
+        <v>1196076.080202221</v>
       </c>
       <c r="AE22" t="n">
-        <v>1506819.370214113</v>
+        <v>1636524.06008522</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.429060510334436e-06</v>
+        <v>2.060225683514386e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.26627604166667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1363010.644355146</v>
+        <v>1480336.50066663</v>
       </c>
     </row>
     <row r="23">
@@ -8328,28 +8328,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1105.58277645176</v>
+        <v>1200.379230001486</v>
       </c>
       <c r="AB23" t="n">
-        <v>1512.707129611038</v>
+        <v>1642.411819482144</v>
       </c>
       <c r="AC23" t="n">
-        <v>1368.33648425875</v>
+        <v>1485.662340570234</v>
       </c>
       <c r="AD23" t="n">
-        <v>1105582.77645176</v>
+        <v>1200379.230001486</v>
       </c>
       <c r="AE23" t="n">
-        <v>1512707.129611038</v>
+        <v>1642411.819482144</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.428313582065609e-06</v>
+        <v>2.059148863609244e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.279296875</v>
       </c>
       <c r="AH23" t="n">
-        <v>1368336.48425875</v>
+        <v>1485662.340570234</v>
       </c>
     </row>
     <row r="24">
@@ -8434,28 +8434,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1108.558166945841</v>
+        <v>1203.354620495568</v>
       </c>
       <c r="AB24" t="n">
-        <v>1516.778190150005</v>
+        <v>1646.482880021111</v>
       </c>
       <c r="AC24" t="n">
-        <v>1372.019008493647</v>
+        <v>1489.344864805131</v>
       </c>
       <c r="AD24" t="n">
-        <v>1108558.166945841</v>
+        <v>1203354.620495568</v>
       </c>
       <c r="AE24" t="n">
-        <v>1516778.190150005</v>
+        <v>1646482.880021111</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.427660019830384e-06</v>
+        <v>2.058206646192244e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>21.2890625</v>
       </c>
       <c r="AH24" t="n">
-        <v>1372019.008493647</v>
+        <v>1489344.864805131</v>
       </c>
     </row>
     <row r="25">
@@ -8540,28 +8540,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1111.654647582522</v>
+        <v>1206.451101132248</v>
       </c>
       <c r="AB25" t="n">
-        <v>1521.014931564195</v>
+        <v>1650.719621435301</v>
       </c>
       <c r="AC25" t="n">
-        <v>1375.851401253572</v>
+        <v>1493.177257565055</v>
       </c>
       <c r="AD25" t="n">
-        <v>1111654.647582522</v>
+        <v>1206451.101132248</v>
       </c>
       <c r="AE25" t="n">
-        <v>1521014.931564195</v>
+        <v>1650719.621435301</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.428220216032005e-06</v>
+        <v>2.059014261121101e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>21.279296875</v>
       </c>
       <c r="AH25" t="n">
-        <v>1375851.401253572</v>
+        <v>1493177.257565055</v>
       </c>
     </row>
   </sheetData>
@@ -8837,28 +8837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3032.102226875138</v>
+        <v>3208.697439821058</v>
       </c>
       <c r="AB2" t="n">
-        <v>4148.656033720255</v>
+        <v>4390.281394903824</v>
       </c>
       <c r="AC2" t="n">
-        <v>3752.714124537151</v>
+        <v>3971.279100372675</v>
       </c>
       <c r="AD2" t="n">
-        <v>3032102.226875138</v>
+        <v>3208697.439821058</v>
       </c>
       <c r="AE2" t="n">
-        <v>4148656.033720255</v>
+        <v>4390281.394903824</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.864020354395059e-07</v>
+        <v>1.151262996262333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.98046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3752714.124537151</v>
+        <v>3971279.100372675</v>
       </c>
     </row>
     <row r="3">
@@ -8943,28 +8943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1680.455142193953</v>
+        <v>1806.545813809856</v>
       </c>
       <c r="AB3" t="n">
-        <v>2299.272861998353</v>
+        <v>2471.795681631064</v>
       </c>
       <c r="AC3" t="n">
-        <v>2079.833487098959</v>
+        <v>2235.890970963223</v>
       </c>
       <c r="AD3" t="n">
-        <v>1680455.142193954</v>
+        <v>1806545.813809856</v>
       </c>
       <c r="AE3" t="n">
-        <v>2299272.861998353</v>
+        <v>2471795.681631064</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.130634024423343e-06</v>
+        <v>1.655205678487703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.80598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2079833.487098959</v>
+        <v>2235890.970963223</v>
       </c>
     </row>
     <row r="4">
@@ -9049,28 +9049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1423.984759549418</v>
+        <v>1524.993931718005</v>
       </c>
       <c r="AB4" t="n">
-        <v>1948.358769789367</v>
+        <v>2086.5639753606</v>
       </c>
       <c r="AC4" t="n">
-        <v>1762.410143339377</v>
+        <v>1887.425238063116</v>
       </c>
       <c r="AD4" t="n">
-        <v>1423984.759549418</v>
+        <v>1524993.931718005</v>
       </c>
       <c r="AE4" t="n">
-        <v>1948358.769789367</v>
+        <v>2086563.9753606</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.256678565844192e-06</v>
+        <v>1.839730145464163e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.01953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1762410.143339377</v>
+        <v>1887425.238063116</v>
       </c>
     </row>
     <row r="5">
@@ -9155,28 +9155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1300.788332787371</v>
+        <v>1410.044157293267</v>
       </c>
       <c r="AB5" t="n">
-        <v>1779.795983650772</v>
+        <v>1929.284622766535</v>
       </c>
       <c r="AC5" t="n">
-        <v>1609.934752930493</v>
+        <v>1745.156406137671</v>
       </c>
       <c r="AD5" t="n">
-        <v>1300788.332787371</v>
+        <v>1410044.157293267</v>
       </c>
       <c r="AE5" t="n">
-        <v>1779795.983650772</v>
+        <v>1929284.622766535</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323033048569191e-06</v>
+        <v>1.936870611987404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.76627604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1609934.752930493</v>
+        <v>1745156.406137671</v>
       </c>
     </row>
     <row r="6">
@@ -9261,28 +9261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1236.374564538892</v>
+        <v>1328.966313152477</v>
       </c>
       <c r="AB6" t="n">
-        <v>1691.662224198308</v>
+        <v>1818.350339511067</v>
       </c>
       <c r="AC6" t="n">
-        <v>1530.212355783664</v>
+        <v>1644.809535178861</v>
       </c>
       <c r="AD6" t="n">
-        <v>1236374.564538892</v>
+        <v>1328966.313152477</v>
       </c>
       <c r="AE6" t="n">
-        <v>1691662.224198308</v>
+        <v>1818350.339511067</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.365241067420464e-06</v>
+        <v>1.998661563764196e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.03059895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1530212.355783664</v>
+        <v>1644809.535178861</v>
       </c>
     </row>
     <row r="7">
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1185.152852376279</v>
+        <v>1286.076594181744</v>
       </c>
       <c r="AB7" t="n">
-        <v>1621.578417874964</v>
+        <v>1759.666733854451</v>
       </c>
       <c r="AC7" t="n">
-        <v>1466.817249572581</v>
+        <v>1591.726610483154</v>
       </c>
       <c r="AD7" t="n">
-        <v>1185152.852376279</v>
+        <v>1286076.594181744</v>
       </c>
       <c r="AE7" t="n">
-        <v>1621578.417874964</v>
+        <v>1759666.733854451</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.392768036236511e-06</v>
+        <v>2.038960010575147e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.57486979166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1466817.249572581</v>
+        <v>1591726.610483154</v>
       </c>
     </row>
     <row r="8">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1149.681284087851</v>
+        <v>1242.187691846864</v>
       </c>
       <c r="AB8" t="n">
-        <v>1573.044653247589</v>
+        <v>1699.616001438151</v>
       </c>
       <c r="AC8" t="n">
-        <v>1422.915479323675</v>
+        <v>1537.407035686933</v>
       </c>
       <c r="AD8" t="n">
-        <v>1149681.284087851</v>
+        <v>1242187.691846864</v>
       </c>
       <c r="AE8" t="n">
-        <v>1573044.653247589</v>
+        <v>1699616.001438151</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.414499853722865e-06</v>
+        <v>2.07077457384695e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.2265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1422915.479323675</v>
+        <v>1537407.035686933</v>
       </c>
     </row>
     <row r="9">
@@ -9579,28 +9579,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1129.811005995732</v>
+        <v>1222.317413754744</v>
       </c>
       <c r="AB9" t="n">
-        <v>1545.85726214715</v>
+        <v>1672.428610337712</v>
       </c>
       <c r="AC9" t="n">
-        <v>1398.322814672119</v>
+        <v>1512.814371035377</v>
       </c>
       <c r="AD9" t="n">
-        <v>1129811.005995732</v>
+        <v>1222317.413754744</v>
       </c>
       <c r="AE9" t="n">
-        <v>1545857.26214715</v>
+        <v>1672428.610337712</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.424834540260819e-06</v>
+        <v>2.085904166158431e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.06705729166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1398322.814672119</v>
+        <v>1512814.371035377</v>
       </c>
     </row>
     <row r="10">
@@ -9685,28 +9685,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1094.992254075726</v>
+        <v>1195.830655026619</v>
       </c>
       <c r="AB10" t="n">
-        <v>1498.216709675275</v>
+        <v>1636.188258532565</v>
       </c>
       <c r="AC10" t="n">
-        <v>1355.229009664225</v>
+        <v>1480.032747542861</v>
       </c>
       <c r="AD10" t="n">
-        <v>1094992.254075726</v>
+        <v>1195830.655026619</v>
       </c>
       <c r="AE10" t="n">
-        <v>1498216.709675275</v>
+        <v>1636188.258532565</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.439805347862529e-06</v>
+        <v>2.107820865301229e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.8359375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1355229.009664225</v>
+        <v>1480032.74754286</v>
       </c>
     </row>
     <row r="11">
@@ -9791,28 +9791,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1073.754588279363</v>
+        <v>1166.346247384397</v>
       </c>
       <c r="AB11" t="n">
-        <v>1469.158398393003</v>
+        <v>1595.846391236215</v>
       </c>
       <c r="AC11" t="n">
-        <v>1328.943982827137</v>
+        <v>1443.541051441107</v>
       </c>
       <c r="AD11" t="n">
-        <v>1073754.588279363</v>
+        <v>1166346.247384397</v>
       </c>
       <c r="AE11" t="n">
-        <v>1469158.398393003</v>
+        <v>1595846.391236215</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.448691246568061e-06</v>
+        <v>2.120829486727922e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.70247395833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1328943.982827137</v>
+        <v>1443541.051441107</v>
       </c>
     </row>
     <row r="12">
@@ -9897,28 +9897,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1051.680811241416</v>
+        <v>1144.272470346449</v>
       </c>
       <c r="AB12" t="n">
-        <v>1438.95608282337</v>
+        <v>1565.644075666581</v>
       </c>
       <c r="AC12" t="n">
-        <v>1301.624133866253</v>
+        <v>1416.221202480223</v>
       </c>
       <c r="AD12" t="n">
-        <v>1051680.811241416</v>
+        <v>1144272.470346449</v>
       </c>
       <c r="AE12" t="n">
-        <v>1438956.08282337</v>
+        <v>1565644.075666581</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.458253246262056e-06</v>
+        <v>2.134827894567515e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.55924479166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1301624.133866253</v>
+        <v>1416221.202480223</v>
       </c>
     </row>
     <row r="13">
@@ -10003,28 +10003,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1033.501670508559</v>
+        <v>1125.922737413</v>
       </c>
       <c r="AB13" t="n">
-        <v>1414.082580465589</v>
+        <v>1540.537161533953</v>
       </c>
       <c r="AC13" t="n">
-        <v>1279.124523663319</v>
+        <v>1393.510456994637</v>
       </c>
       <c r="AD13" t="n">
-        <v>1033501.670508559</v>
+        <v>1125922.737413</v>
       </c>
       <c r="AE13" t="n">
-        <v>1414082.580465588</v>
+        <v>1540537.161533953</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.464724498580215e-06</v>
+        <v>2.144301564519563e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.46484375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1279124.523663319</v>
+        <v>1393510.456994637</v>
       </c>
     </row>
     <row r="14">
@@ -10109,28 +10109,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1010.766273017026</v>
+        <v>1103.187339921467</v>
       </c>
       <c r="AB14" t="n">
-        <v>1382.975006602725</v>
+        <v>1509.429587671089</v>
       </c>
       <c r="AC14" t="n">
-        <v>1250.985812990173</v>
+        <v>1365.371746321492</v>
       </c>
       <c r="AD14" t="n">
-        <v>1010766.273017026</v>
+        <v>1103187.339921467</v>
       </c>
       <c r="AE14" t="n">
-        <v>1382975.006602725</v>
+        <v>1509429.587671089</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.474962599262674e-06</v>
+        <v>2.159289758772058e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.31510416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1250985.812990173</v>
+        <v>1365371.746321492</v>
       </c>
     </row>
     <row r="15">
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>999.4708132357198</v>
+        <v>1091.891880140161</v>
       </c>
       <c r="AB15" t="n">
-        <v>1367.520060209426</v>
+        <v>1493.974641277791</v>
       </c>
       <c r="AC15" t="n">
-        <v>1237.005864989497</v>
+        <v>1351.391798320816</v>
       </c>
       <c r="AD15" t="n">
-        <v>999470.8132357198</v>
+        <v>1091891.880140161</v>
       </c>
       <c r="AE15" t="n">
-        <v>1367520.060209426</v>
+        <v>1493974.641277791</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.474769427551685e-06</v>
+        <v>2.159006962654086e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.318359375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1237005.864989497</v>
+        <v>1351391.798320816</v>
       </c>
     </row>
     <row r="16">
@@ -10321,28 +10321,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>994.5880235100814</v>
+        <v>1087.009090414523</v>
       </c>
       <c r="AB16" t="n">
-        <v>1360.839211893328</v>
+        <v>1487.293792961693</v>
       </c>
       <c r="AC16" t="n">
-        <v>1230.962627460058</v>
+        <v>1345.348560791377</v>
       </c>
       <c r="AD16" t="n">
-        <v>994588.0235100813</v>
+        <v>1087009.090414523</v>
       </c>
       <c r="AE16" t="n">
-        <v>1360839.211893328</v>
+        <v>1487293.792961693</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.476121629528613e-06</v>
+        <v>2.160986535479887e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.298828125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1230962.627460058</v>
+        <v>1345348.560791377</v>
       </c>
     </row>
     <row r="17">
@@ -10427,28 +10427,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>993.1732767498675</v>
+        <v>1085.594343654308</v>
       </c>
       <c r="AB17" t="n">
-        <v>1358.903492961781</v>
+        <v>1485.358074030146</v>
       </c>
       <c r="AC17" t="n">
-        <v>1229.211650826539</v>
+        <v>1343.597584157859</v>
       </c>
       <c r="AD17" t="n">
-        <v>993173.2767498675</v>
+        <v>1085594.343654308</v>
       </c>
       <c r="AE17" t="n">
-        <v>1358903.492961781</v>
+        <v>1485358.074030146</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.477377245650047e-06</v>
+        <v>2.162824710246703e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.28255208333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1229211.650826539</v>
+        <v>1343597.584157859</v>
       </c>
     </row>
   </sheetData>
@@ -10724,28 +10724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1241.933403576552</v>
+        <v>1350.590194509889</v>
       </c>
       <c r="AB2" t="n">
-        <v>1699.268073008304</v>
+        <v>1847.937087962597</v>
       </c>
       <c r="AC2" t="n">
-        <v>1537.09231305811</v>
+        <v>1671.572565883438</v>
       </c>
       <c r="AD2" t="n">
-        <v>1241933.403576552</v>
+        <v>1350590.194509889</v>
       </c>
       <c r="AE2" t="n">
-        <v>1699268.073008304</v>
+        <v>1847937.087962597</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248150895102674e-06</v>
+        <v>1.931043497627274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.10872395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1537092.31305811</v>
+        <v>1671572.565883438</v>
       </c>
     </row>
     <row r="3">
@@ -10830,28 +10830,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>908.8333710546846</v>
+        <v>1002.040835865563</v>
       </c>
       <c r="AB3" t="n">
-        <v>1243.505913175595</v>
+        <v>1371.036478552974</v>
       </c>
       <c r="AC3" t="n">
-        <v>1124.827454093626</v>
+        <v>1240.18668130166</v>
       </c>
       <c r="AD3" t="n">
-        <v>908833.3710546845</v>
+        <v>1002040.835865563</v>
       </c>
       <c r="AE3" t="n">
-        <v>1243505.913175595</v>
+        <v>1371036.478552974</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.487305271774191e-06</v>
+        <v>2.301044837859976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.58723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1124827.454093626</v>
+        <v>1240186.68130166</v>
       </c>
     </row>
     <row r="4">
@@ -10936,28 +10936,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>811.1086922038211</v>
+        <v>896.4636169344388</v>
       </c>
       <c r="AB4" t="n">
-        <v>1109.79469626329</v>
+        <v>1226.581069873238</v>
       </c>
       <c r="AC4" t="n">
-        <v>1003.877448058559</v>
+        <v>1109.517894081879</v>
       </c>
       <c r="AD4" t="n">
-        <v>811108.692203821</v>
+        <v>896463.6169344388</v>
       </c>
       <c r="AE4" t="n">
-        <v>1109794.69626329</v>
+        <v>1226581.069873238</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.56975371618776e-06</v>
+        <v>2.428602758219605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.35026041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1003877.448058559</v>
+        <v>1109517.894081879</v>
       </c>
     </row>
     <row r="5">
@@ -11042,28 +11042,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>746.4207908838665</v>
+        <v>831.8609669605048</v>
       </c>
       <c r="AB5" t="n">
-        <v>1021.285855848535</v>
+        <v>1138.188874111132</v>
       </c>
       <c r="AC5" t="n">
-        <v>923.8157671500511</v>
+        <v>1029.561725424083</v>
       </c>
       <c r="AD5" t="n">
-        <v>746420.7908838665</v>
+        <v>831860.9669605048</v>
       </c>
       <c r="AE5" t="n">
-        <v>1021285.855848535</v>
+        <v>1138188.874111132</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.614265098596654e-06</v>
+        <v>2.49746736097585e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.73177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>923815.7671500511</v>
+        <v>1029561.725424083</v>
       </c>
     </row>
     <row r="6">
@@ -11148,28 +11148,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>740.0039690093175</v>
+        <v>825.4441450859561</v>
       </c>
       <c r="AB6" t="n">
-        <v>1012.506077069575</v>
+        <v>1129.409095332173</v>
       </c>
       <c r="AC6" t="n">
-        <v>915.8739181352588</v>
+        <v>1021.61987640929</v>
       </c>
       <c r="AD6" t="n">
-        <v>740003.9690093176</v>
+        <v>825444.1450859561</v>
       </c>
       <c r="AE6" t="n">
-        <v>1012506.077069575</v>
+        <v>1129409.095332173</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.618252801136919e-06</v>
+        <v>2.503636829019387e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.6796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>915873.9181352588</v>
+        <v>1021619.87640929</v>
       </c>
     </row>
   </sheetData>
@@ -11445,28 +11445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1726.323047554483</v>
+        <v>1854.666495742397</v>
       </c>
       <c r="AB2" t="n">
-        <v>2362.0313536618</v>
+        <v>2537.636521585825</v>
       </c>
       <c r="AC2" t="n">
-        <v>2136.602396400143</v>
+        <v>2295.4480535609</v>
       </c>
       <c r="AD2" t="n">
-        <v>1726323.047554483</v>
+        <v>1854666.495742397</v>
       </c>
       <c r="AE2" t="n">
-        <v>2362031.3536618</v>
+        <v>2537636.521585824</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.063225304212003e-06</v>
+        <v>1.606845989347777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.56575520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2136602.396400143</v>
+        <v>2295448.0535609</v>
       </c>
     </row>
     <row r="3">
@@ -11551,28 +11551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1158.912764196619</v>
+        <v>1263.106474994727</v>
       </c>
       <c r="AB3" t="n">
-        <v>1585.675571596565</v>
+        <v>1728.238003412637</v>
       </c>
       <c r="AC3" t="n">
-        <v>1434.34092055303</v>
+        <v>1563.297393964207</v>
       </c>
       <c r="AD3" t="n">
-        <v>1158912.764196619</v>
+        <v>1263106.474994727</v>
       </c>
       <c r="AE3" t="n">
-        <v>1585675.571596565</v>
+        <v>1728238.003412637</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.346662693785199e-06</v>
+        <v>2.035203206639965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.92513020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1434340.92055303</v>
+        <v>1563297.393964207</v>
       </c>
     </row>
     <row r="4">
@@ -11657,28 +11657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1024.568706881908</v>
+        <v>1120.655700822251</v>
       </c>
       <c r="AB4" t="n">
-        <v>1401.860105537063</v>
+        <v>1533.330569705235</v>
       </c>
       <c r="AC4" t="n">
-        <v>1268.068544587621</v>
+        <v>1386.991652175538</v>
       </c>
       <c r="AD4" t="n">
-        <v>1024568.706881908</v>
+        <v>1120655.700822251</v>
       </c>
       <c r="AE4" t="n">
-        <v>1401860.105537063</v>
+        <v>1533330.569705235</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.445850314290624e-06</v>
+        <v>2.185104859253674e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.212890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1268068.544587621</v>
+        <v>1386991.652175538</v>
       </c>
     </row>
     <row r="5">
@@ -11763,28 +11763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>950.9651905639128</v>
+        <v>1039.116059847082</v>
       </c>
       <c r="AB5" t="n">
-        <v>1301.152527352815</v>
+        <v>1421.764435647933</v>
       </c>
       <c r="AC5" t="n">
-        <v>1176.972356321304</v>
+        <v>1286.073233368612</v>
       </c>
       <c r="AD5" t="n">
-        <v>950965.1905639127</v>
+        <v>1039116.059847082</v>
       </c>
       <c r="AE5" t="n">
-        <v>1301152.527352815</v>
+        <v>1421764.435647933</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.498021765408863e-06</v>
+        <v>2.263951258653399e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.40559895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1176972.356321304</v>
+        <v>1286073.233368612</v>
       </c>
     </row>
     <row r="6">
@@ -11869,28 +11869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>897.1873125309349</v>
+        <v>993.2742169627268</v>
       </c>
       <c r="AB6" t="n">
-        <v>1227.57126211556</v>
+        <v>1359.041603814183</v>
       </c>
       <c r="AC6" t="n">
-        <v>1110.413583766338</v>
+        <v>1229.336580573028</v>
       </c>
       <c r="AD6" t="n">
-        <v>897187.3125309349</v>
+        <v>993274.2169627268</v>
       </c>
       <c r="AE6" t="n">
-        <v>1227571.26211556</v>
+        <v>1359041.603814184</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.529572089602896e-06</v>
+        <v>2.311633073310151e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.943359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1110413.583766338</v>
+        <v>1229336.580573028</v>
       </c>
     </row>
     <row r="7">
@@ -11975,28 +11975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>863.7039833395852</v>
+        <v>951.9401039687757</v>
       </c>
       <c r="AB7" t="n">
-        <v>1181.757893935726</v>
+        <v>1302.486446883493</v>
       </c>
       <c r="AC7" t="n">
-        <v>1068.972579146121</v>
+        <v>1178.178968444141</v>
       </c>
       <c r="AD7" t="n">
-        <v>863703.9833395852</v>
+        <v>951940.1039687757</v>
       </c>
       <c r="AE7" t="n">
-        <v>1181757.893935726</v>
+        <v>1302486.446883493</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.548543526373165e-06</v>
+        <v>2.340304491273688e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.67317708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1068972.579146121</v>
+        <v>1178178.968444141</v>
       </c>
     </row>
     <row r="8">
@@ -12081,28 +12081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>833.9443371756746</v>
+        <v>922.0098656042727</v>
       </c>
       <c r="AB8" t="n">
-        <v>1141.039433151334</v>
+        <v>1261.534574324255</v>
       </c>
       <c r="AC8" t="n">
-        <v>1032.140231110273</v>
+        <v>1141.135485125642</v>
       </c>
       <c r="AD8" t="n">
-        <v>833944.3371756746</v>
+        <v>922009.8656042727</v>
       </c>
       <c r="AE8" t="n">
-        <v>1141039.433151334</v>
+        <v>1261534.574324255</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.562772103950866e-06</v>
+        <v>2.36180805474634e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.47786458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1032140.231110273</v>
+        <v>1141135.485125642</v>
       </c>
     </row>
     <row r="9">
@@ -12187,28 +12187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>831.2147757560602</v>
+        <v>919.2803041846585</v>
       </c>
       <c r="AB9" t="n">
-        <v>1137.304726797267</v>
+        <v>1257.799867970187</v>
       </c>
       <c r="AC9" t="n">
-        <v>1028.761959888945</v>
+        <v>1137.757213904314</v>
       </c>
       <c r="AD9" t="n">
-        <v>831214.7757560603</v>
+        <v>919280.3041846585</v>
       </c>
       <c r="AE9" t="n">
-        <v>1137304.726797267</v>
+        <v>1257799.867970187</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.565040427912528e-06</v>
+        <v>2.365236159068067e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.4453125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1028761.959888945</v>
+        <v>1137757.213904314</v>
       </c>
     </row>
     <row r="10">
@@ -12293,28 +12293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>835.4023706850741</v>
+        <v>923.467899113672</v>
       </c>
       <c r="AB10" t="n">
-        <v>1143.034378922793</v>
+        <v>1263.529520095713</v>
       </c>
       <c r="AC10" t="n">
-        <v>1033.944782057228</v>
+        <v>1142.940036072597</v>
       </c>
       <c r="AD10" t="n">
-        <v>835402.370685074</v>
+        <v>923467.8991136721</v>
       </c>
       <c r="AE10" t="n">
-        <v>1143034.378922793</v>
+        <v>1263529.520095713</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.56524663918177e-06</v>
+        <v>2.365547804915497e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.44205729166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1033944.782057228</v>
+        <v>1142940.036072597</v>
       </c>
     </row>
   </sheetData>
@@ -12590,28 +12590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>937.6461561132973</v>
+        <v>1043.29883732413</v>
       </c>
       <c r="AB2" t="n">
-        <v>1282.928836823153</v>
+        <v>1427.487496323148</v>
       </c>
       <c r="AC2" t="n">
-        <v>1160.487909238682</v>
+        <v>1291.250093165351</v>
       </c>
       <c r="AD2" t="n">
-        <v>937646.1561132972</v>
+        <v>1043298.83732413</v>
       </c>
       <c r="AE2" t="n">
-        <v>1282928.836823153</v>
+        <v>1427487.496323148</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.405221683244231e-06</v>
+        <v>2.220935994136425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.93098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1160487.909238682</v>
+        <v>1291250.093165351</v>
       </c>
     </row>
     <row r="3">
@@ -12696,28 +12696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>722.2691444752766</v>
+        <v>812.8895432663988</v>
       </c>
       <c r="AB3" t="n">
-        <v>988.2405077368614</v>
+        <v>1112.231335252712</v>
       </c>
       <c r="AC3" t="n">
-        <v>893.9242206827184</v>
+        <v>1006.081537642676</v>
       </c>
       <c r="AD3" t="n">
-        <v>722269.1444752766</v>
+        <v>812889.5432663988</v>
       </c>
       <c r="AE3" t="n">
-        <v>988240.5077368615</v>
+        <v>1112231.335252712</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.608941889035573e-06</v>
+        <v>2.542913332779749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.646484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>893924.2206827184</v>
+        <v>1006081.537642676</v>
       </c>
     </row>
     <row r="4">
@@ -12802,28 +12802,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>674.8721224033902</v>
+        <v>757.9337990659224</v>
       </c>
       <c r="AB4" t="n">
-        <v>923.3898111290688</v>
+        <v>1037.038461561297</v>
       </c>
       <c r="AC4" t="n">
-        <v>835.2627835406493</v>
+        <v>938.0649662825087</v>
       </c>
       <c r="AD4" t="n">
-        <v>674872.1224033902</v>
+        <v>757933.7990659224</v>
       </c>
       <c r="AE4" t="n">
-        <v>923389.8111290688</v>
+        <v>1037038.461561297</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.654834902428128e-06</v>
+        <v>2.615446689287311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.01822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>835262.7835406492</v>
+        <v>938064.9662825088</v>
       </c>
     </row>
     <row r="5">
@@ -12908,28 +12908,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>680.020616059682</v>
+        <v>763.0822927222141</v>
       </c>
       <c r="AB5" t="n">
-        <v>930.4342072851169</v>
+        <v>1044.082857717345</v>
       </c>
       <c r="AC5" t="n">
-        <v>841.6348724144359</v>
+        <v>944.4370551562956</v>
       </c>
       <c r="AD5" t="n">
-        <v>680020.616059682</v>
+        <v>763082.2927222141</v>
       </c>
       <c r="AE5" t="n">
-        <v>930434.2072851169</v>
+        <v>1044082.857717345</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.65505877078614e-06</v>
+        <v>2.615800510538567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.01497395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>841634.872414436</v>
+        <v>944437.0551562957</v>
       </c>
     </row>
   </sheetData>
@@ -13205,28 +13205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3321.760235384238</v>
+        <v>3508.021572028782</v>
       </c>
       <c r="AB2" t="n">
-        <v>4544.978899771882</v>
+        <v>4799.829877839187</v>
       </c>
       <c r="AC2" t="n">
-        <v>4111.212492495431</v>
+        <v>4341.740850901578</v>
       </c>
       <c r="AD2" t="n">
-        <v>3321760.235384238</v>
+        <v>3508021.572028782</v>
       </c>
       <c r="AE2" t="n">
-        <v>4544978.899771882</v>
+        <v>4799829.877839187</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.476551076914376e-07</v>
+        <v>1.089996130335741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.67643229166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4111212.492495431</v>
+        <v>4341740.850901578</v>
       </c>
     </row>
     <row r="3">
@@ -13311,28 +13311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1780.486959408539</v>
+        <v>1899.040265196683</v>
       </c>
       <c r="AB3" t="n">
-        <v>2436.140807403664</v>
+        <v>2598.350670585724</v>
       </c>
       <c r="AC3" t="n">
-        <v>2203.638947890155</v>
+        <v>2350.367729393092</v>
       </c>
       <c r="AD3" t="n">
-        <v>1780486.959408539</v>
+        <v>1899040.265196683</v>
       </c>
       <c r="AE3" t="n">
-        <v>2436140.807403664</v>
+        <v>2598350.670585725</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.099036736207027e-06</v>
+        <v>1.602270588722952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.35286458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2203638.947890155</v>
+        <v>2350367.729393092</v>
       </c>
     </row>
     <row r="4">
@@ -13417,28 +13417,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1489.72891474257</v>
+        <v>1599.722697023702</v>
       </c>
       <c r="AB4" t="n">
-        <v>2038.312823352062</v>
+        <v>2188.811168852303</v>
       </c>
       <c r="AC4" t="n">
-        <v>1843.779108281356</v>
+        <v>1979.914102912808</v>
       </c>
       <c r="AD4" t="n">
-        <v>1489728.91474257</v>
+        <v>1599722.697023702</v>
       </c>
       <c r="AE4" t="n">
-        <v>2038312.823352062</v>
+        <v>2188811.168852303</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.229500685993665e-06</v>
+        <v>1.792472192313736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.341796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1843779.108281356</v>
+        <v>1979914.102912808</v>
       </c>
     </row>
     <row r="5">
@@ -13523,28 +13523,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1355.988896670123</v>
+        <v>1465.982589442705</v>
       </c>
       <c r="AB5" t="n">
-        <v>1855.323830432159</v>
+        <v>2005.822053462851</v>
       </c>
       <c r="AC5" t="n">
-        <v>1678.254328019063</v>
+        <v>1814.38921186929</v>
       </c>
       <c r="AD5" t="n">
-        <v>1355988.896670124</v>
+        <v>1465982.589442705</v>
       </c>
       <c r="AE5" t="n">
-        <v>1855323.830432159</v>
+        <v>2005822.053462851</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.298609249270226e-06</v>
+        <v>1.893224619160799e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.994140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1678254.328019063</v>
+        <v>1814389.21186929</v>
       </c>
     </row>
     <row r="6">
@@ -13629,28 +13629,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1288.021090364891</v>
+        <v>1389.540689993583</v>
       </c>
       <c r="AB6" t="n">
-        <v>1762.327279317351</v>
+        <v>1901.23087425797</v>
       </c>
       <c r="AC6" t="n">
-        <v>1594.133237221174</v>
+        <v>1719.78006801308</v>
       </c>
       <c r="AD6" t="n">
-        <v>1288021.090364891</v>
+        <v>1389540.689993583</v>
       </c>
       <c r="AE6" t="n">
-        <v>1762327.279317351</v>
+        <v>1901230.87425797</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34168245352847e-06</v>
+        <v>1.956020453068248e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.22265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1594133.237221174</v>
+        <v>1719780.06801308</v>
       </c>
     </row>
     <row r="7">
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1233.770739435848</v>
+        <v>1335.375590410561</v>
       </c>
       <c r="AB7" t="n">
-        <v>1688.099555819667</v>
+        <v>1827.119795412935</v>
       </c>
       <c r="AC7" t="n">
-        <v>1526.989703474844</v>
+        <v>1652.742046517463</v>
       </c>
       <c r="AD7" t="n">
-        <v>1233770.739435848</v>
+        <v>1335375.590410561</v>
       </c>
       <c r="AE7" t="n">
-        <v>1688099.555819667</v>
+        <v>1827119.795412935</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.370685077729021e-06</v>
+        <v>1.998302981232597e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.73111979166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1526989.703474844</v>
+        <v>1652742.046517462</v>
       </c>
     </row>
     <row r="8">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1196.697247105389</v>
+        <v>1289.828004936212</v>
       </c>
       <c r="AB8" t="n">
-        <v>1637.373968046083</v>
+        <v>1764.799579549277</v>
       </c>
       <c r="AC8" t="n">
-        <v>1481.105294604562</v>
+        <v>1596.36958458886</v>
       </c>
       <c r="AD8" t="n">
-        <v>1196697.247105389</v>
+        <v>1289828.004936212</v>
       </c>
       <c r="AE8" t="n">
-        <v>1637373.968046083</v>
+        <v>1764799.579549277</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.393178862174993e-06</v>
+        <v>2.031096361162042e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.36653645833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1481105.294604562</v>
+        <v>1596369.58458886</v>
       </c>
     </row>
     <row r="9">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1186.429819525439</v>
+        <v>1279.560577356262</v>
       </c>
       <c r="AB9" t="n">
-        <v>1623.32562066426</v>
+        <v>1750.751232167454</v>
       </c>
       <c r="AC9" t="n">
-        <v>1468.39770177988</v>
+        <v>1583.661991764179</v>
       </c>
       <c r="AD9" t="n">
-        <v>1186429.819525439</v>
+        <v>1279560.577356262</v>
       </c>
       <c r="AE9" t="n">
-        <v>1623325.620664259</v>
+        <v>1750751.232167454</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.397294746137448e-06</v>
+        <v>2.037096851957643e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.29817708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1468397.70177988</v>
+        <v>1583661.991764178</v>
       </c>
     </row>
     <row r="10">
@@ -14053,28 +14053,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1141.894484849448</v>
+        <v>1243.413994969589</v>
       </c>
       <c r="AB10" t="n">
-        <v>1562.390411000269</v>
+        <v>1701.293883471339</v>
       </c>
       <c r="AC10" t="n">
-        <v>1413.278063003116</v>
+        <v>1538.924783013796</v>
       </c>
       <c r="AD10" t="n">
-        <v>1141894.484849448</v>
+        <v>1243413.994969589</v>
       </c>
       <c r="AE10" t="n">
-        <v>1562390.411000269</v>
+        <v>1701293.883471339</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.418927066498255e-06</v>
+        <v>2.068634315208939e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.95963541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1413278.063003116</v>
+        <v>1538924.783013796</v>
       </c>
     </row>
     <row r="11">
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1118.105395846451</v>
+        <v>1219.624905966592</v>
       </c>
       <c r="AB11" t="n">
-        <v>1529.841129925832</v>
+        <v>1668.744602396902</v>
       </c>
       <c r="AC11" t="n">
-        <v>1383.835239631221</v>
+        <v>1509.4819596419</v>
       </c>
       <c r="AD11" t="n">
-        <v>1118105.395846451</v>
+        <v>1219624.905966592</v>
       </c>
       <c r="AE11" t="n">
-        <v>1529841.129925832</v>
+        <v>1668744.602396902</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.430508972532139e-06</v>
+        <v>2.085519417215164e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.78059895833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1383835.239631221</v>
+        <v>1509481.9596419</v>
       </c>
     </row>
     <row r="12">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1102.278205059944</v>
+        <v>1195.494214236787</v>
       </c>
       <c r="AB12" t="n">
-        <v>1508.185669245354</v>
+        <v>1635.727925401198</v>
       </c>
       <c r="AC12" t="n">
-        <v>1364.246545724458</v>
+        <v>1479.616347959469</v>
       </c>
       <c r="AD12" t="n">
-        <v>1102278.205059944</v>
+        <v>1195494.214236787</v>
       </c>
       <c r="AE12" t="n">
-        <v>1508185.669245354</v>
+        <v>1635727.925401198</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.437592121676828e-06</v>
+        <v>2.095845843235501e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.67317708333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1364246.545724458</v>
+        <v>1479616.347959469</v>
       </c>
     </row>
     <row r="13">
@@ -14371,28 +14371,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1082.913563451089</v>
+        <v>1176.129572627933</v>
       </c>
       <c r="AB13" t="n">
-        <v>1481.690112288426</v>
+        <v>1609.232368444269</v>
       </c>
       <c r="AC13" t="n">
-        <v>1340.279687536751</v>
+        <v>1455.649489771762</v>
       </c>
       <c r="AD13" t="n">
-        <v>1082913.563451089</v>
+        <v>1176129.572627933</v>
       </c>
       <c r="AE13" t="n">
-        <v>1481690.112288426</v>
+        <v>1609232.368444269</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.445536734906682e-06</v>
+        <v>2.107428185933986e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.55598958333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1340279.687536751</v>
+        <v>1455649.489771762</v>
       </c>
     </row>
     <row r="14">
@@ -14477,28 +14477,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1063.415308931873</v>
+        <v>1156.460725908124</v>
       </c>
       <c r="AB14" t="n">
-        <v>1455.011740252954</v>
+        <v>1582.320584633951</v>
       </c>
       <c r="AC14" t="n">
-        <v>1316.147461885015</v>
+        <v>1431.306128837374</v>
       </c>
       <c r="AD14" t="n">
-        <v>1063415.308931873</v>
+        <v>1156460.725908124</v>
       </c>
       <c r="AE14" t="n">
-        <v>1455011.740252954</v>
+        <v>1582320.584633951</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.451949856429576e-06</v>
+        <v>2.116777787871317e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1316147.461885015</v>
+        <v>1431306.128837375</v>
       </c>
     </row>
     <row r="15">
@@ -14583,28 +14583,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1049.342510662295</v>
+        <v>1142.387927638547</v>
       </c>
       <c r="AB15" t="n">
-        <v>1435.756716812476</v>
+        <v>1563.065561193473</v>
       </c>
       <c r="AC15" t="n">
-        <v>1298.730110857101</v>
+        <v>1413.88877780946</v>
       </c>
       <c r="AD15" t="n">
-        <v>1049342.510662295</v>
+        <v>1142387.927638547</v>
       </c>
       <c r="AE15" t="n">
-        <v>1435756.716812476</v>
+        <v>1563065.561193473</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.45510855807518e-06</v>
+        <v>2.121382815691196e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.41276041666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1298730.110857101</v>
+        <v>1413888.77780946</v>
       </c>
     </row>
     <row r="16">
@@ -14689,28 +14689,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1032.093929876637</v>
+        <v>1125.139346852888</v>
       </c>
       <c r="AB16" t="n">
-        <v>1412.156447627859</v>
+        <v>1539.465292008856</v>
       </c>
       <c r="AC16" t="n">
-        <v>1277.382218240278</v>
+        <v>1392.540885192637</v>
       </c>
       <c r="AD16" t="n">
-        <v>1032093.929876637</v>
+        <v>1125139.346852888</v>
       </c>
       <c r="AE16" t="n">
-        <v>1412156.447627859</v>
+        <v>1539465.292008856</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.46142596136639e-06</v>
+        <v>2.130592871330956e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.32161458333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1277382.218240278</v>
+        <v>1392540.885192638</v>
       </c>
     </row>
     <row r="17">
@@ -14795,28 +14795,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1022.915115780093</v>
+        <v>1115.960532756345</v>
       </c>
       <c r="AB17" t="n">
-        <v>1399.59758924027</v>
+        <v>1526.906433621267</v>
       </c>
       <c r="AC17" t="n">
-        <v>1266.021959670732</v>
+        <v>1381.180626623091</v>
       </c>
       <c r="AD17" t="n">
-        <v>1022915.115780093</v>
+        <v>1115960.532756345</v>
       </c>
       <c r="AE17" t="n">
-        <v>1399597.58924027</v>
+        <v>1526906.433621267</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.461713116061444e-06</v>
+        <v>2.131011510223672e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.31510416666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1266021.959670732</v>
+        <v>1381180.626623091</v>
       </c>
     </row>
     <row r="18">
@@ -14901,28 +14901,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1022.034890938077</v>
+        <v>1115.080307914329</v>
       </c>
       <c r="AB18" t="n">
-        <v>1398.393226778644</v>
+        <v>1525.702071159641</v>
       </c>
       <c r="AC18" t="n">
-        <v>1264.93253987211</v>
+        <v>1380.09120682447</v>
       </c>
       <c r="AD18" t="n">
-        <v>1022034.890938077</v>
+        <v>1115080.307914329</v>
       </c>
       <c r="AE18" t="n">
-        <v>1398393.226778644</v>
+        <v>1525702.071159641</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.463531762463459e-06</v>
+        <v>2.133662889877542e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.2890625</v>
       </c>
       <c r="AH18" t="n">
-        <v>1264932.53987211</v>
+        <v>1380091.20682447</v>
       </c>
     </row>
     <row r="19">
@@ -15007,28 +15007,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1026.251423278765</v>
+        <v>1119.296840255016</v>
       </c>
       <c r="AB19" t="n">
-        <v>1404.162472347451</v>
+        <v>1531.471316728448</v>
       </c>
       <c r="AC19" t="n">
-        <v>1270.151176741017</v>
+        <v>1385.309843693377</v>
       </c>
       <c r="AD19" t="n">
-        <v>1026251.423278765</v>
+        <v>1119296.840255016</v>
       </c>
       <c r="AE19" t="n">
-        <v>1404162.472347451</v>
+        <v>1531471.316728448</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.463148889536719e-06</v>
+        <v>2.133104704687253e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.29557291666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1270151.176741017</v>
+        <v>1385309.843693377</v>
       </c>
     </row>
   </sheetData>
@@ -15304,28 +15304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>787.2434455728848</v>
+        <v>883.8178104718824</v>
       </c>
       <c r="AB2" t="n">
-        <v>1077.141212962468</v>
+        <v>1209.278519577561</v>
       </c>
       <c r="AC2" t="n">
-        <v>974.3403673745169</v>
+        <v>1093.86667490214</v>
       </c>
       <c r="AD2" t="n">
-        <v>787243.4455728848</v>
+        <v>883817.8104718823</v>
       </c>
       <c r="AE2" t="n">
-        <v>1077141.212962468</v>
+        <v>1209278.519577561</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.503372605320375e-06</v>
+        <v>2.408756052457357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>974340.3673745169</v>
+        <v>1093866.67490214</v>
       </c>
     </row>
     <row r="3">
@@ -15410,28 +15410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>634.1031054955647</v>
+        <v>715.806835941026</v>
       </c>
       <c r="AB3" t="n">
-        <v>867.6078435936948</v>
+        <v>979.3984921033682</v>
       </c>
       <c r="AC3" t="n">
-        <v>784.8045686963683</v>
+        <v>885.9260746114392</v>
       </c>
       <c r="AD3" t="n">
-        <v>634103.1054955648</v>
+        <v>715806.835941026</v>
       </c>
       <c r="AE3" t="n">
-        <v>867607.8435936949</v>
+        <v>979398.4921033682</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.668326624800818e-06</v>
+        <v>2.673051138981175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.35026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>784804.5686963683</v>
+        <v>885926.0746114391</v>
       </c>
     </row>
     <row r="4">
@@ -15516,28 +15516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>638.3205544273123</v>
+        <v>720.0242848727736</v>
       </c>
       <c r="AB4" t="n">
-        <v>873.3783432828272</v>
+        <v>985.1689917925006</v>
       </c>
       <c r="AC4" t="n">
-        <v>790.0243399941171</v>
+        <v>891.1458459091878</v>
       </c>
       <c r="AD4" t="n">
-        <v>638320.5544273123</v>
+        <v>720024.2848727736</v>
       </c>
       <c r="AE4" t="n">
-        <v>873378.3432828273</v>
+        <v>985168.9917925006</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.669701241629822e-06</v>
+        <v>2.675253598035541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.333984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>790024.3399941172</v>
+        <v>891145.8459091878</v>
       </c>
     </row>
   </sheetData>
@@ -15813,28 +15813,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2309.086107977946</v>
+        <v>2457.113346572866</v>
       </c>
       <c r="AB2" t="n">
-        <v>3159.393482625089</v>
+        <v>3361.930880971538</v>
       </c>
       <c r="AC2" t="n">
-        <v>2857.865402879833</v>
+        <v>3041.072916191113</v>
       </c>
       <c r="AD2" t="n">
-        <v>2309086.107977946</v>
+        <v>2457113.346572866</v>
       </c>
       <c r="AE2" t="n">
-        <v>3159393.482625089</v>
+        <v>3361930.880971537</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.136321621699761e-07</v>
+        <v>1.35660050067678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.45572916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2857865.402879833</v>
+        <v>3041072.916191113</v>
       </c>
     </row>
     <row r="3">
@@ -15919,28 +15919,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1417.138607122307</v>
+        <v>1524.085122461934</v>
       </c>
       <c r="AB3" t="n">
-        <v>1938.991562007665</v>
+        <v>2085.320502442609</v>
       </c>
       <c r="AC3" t="n">
-        <v>1753.936928721402</v>
+        <v>1886.300440455193</v>
       </c>
       <c r="AD3" t="n">
-        <v>1417138.607122307</v>
+        <v>1524085.122461934</v>
       </c>
       <c r="AE3" t="n">
-        <v>1938991.562007665</v>
+        <v>2085320.502442609</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.230681728521522e-06</v>
+        <v>1.827369392426722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.32161458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1753936.928721402</v>
+        <v>1886300.440455193</v>
       </c>
     </row>
     <row r="4">
@@ -16025,28 +16025,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1223.685629612383</v>
+        <v>1322.398932130037</v>
       </c>
       <c r="AB4" t="n">
-        <v>1674.300663635557</v>
+        <v>1809.364559063763</v>
       </c>
       <c r="AC4" t="n">
-        <v>1514.507758193919</v>
+        <v>1636.681345005825</v>
       </c>
       <c r="AD4" t="n">
-        <v>1223685.629612383</v>
+        <v>1322398.932130037</v>
       </c>
       <c r="AE4" t="n">
-        <v>1674300.663635557</v>
+        <v>1809364.559063763</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.345122093023807e-06</v>
+        <v>1.997295389134956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.08203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1514507.758193919</v>
+        <v>1636681.345005825</v>
       </c>
     </row>
     <row r="5">
@@ -16131,28 +16131,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1134.168642127762</v>
+        <v>1224.734072678015</v>
       </c>
       <c r="AB5" t="n">
-        <v>1551.819572148332</v>
+        <v>1675.735189691998</v>
       </c>
       <c r="AC5" t="n">
-        <v>1403.716090174943</v>
+        <v>1515.805375096903</v>
       </c>
       <c r="AD5" t="n">
-        <v>1134168.642127762</v>
+        <v>1224734.072678015</v>
       </c>
       <c r="AE5" t="n">
-        <v>1551819.572148332</v>
+        <v>1675735.189691998</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.40323789551888e-06</v>
+        <v>2.083588243115485e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.0859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1403716.090174943</v>
+        <v>1515805.375096903</v>
       </c>
     </row>
     <row r="6">
@@ -16237,28 +16237,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1073.293063677497</v>
+        <v>1171.835684486008</v>
       </c>
       <c r="AB6" t="n">
-        <v>1468.526920071702</v>
+        <v>1603.357281255513</v>
       </c>
       <c r="AC6" t="n">
-        <v>1328.372771910535</v>
+        <v>1450.335112658564</v>
       </c>
       <c r="AD6" t="n">
-        <v>1073293.063677497</v>
+        <v>1171835.684486008</v>
       </c>
       <c r="AE6" t="n">
-        <v>1468526.920071702</v>
+        <v>1603357.281255513</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.440455892322231e-06</v>
+        <v>2.138851132479729e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.48697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1328372.771910535</v>
+        <v>1450335.112658564</v>
       </c>
     </row>
     <row r="7">
@@ -16343,28 +16343,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1034.17410851191</v>
+        <v>1124.654198207591</v>
       </c>
       <c r="AB7" t="n">
-        <v>1415.002639807644</v>
+        <v>1538.801490229112</v>
       </c>
       <c r="AC7" t="n">
-        <v>1279.95677383308</v>
+        <v>1391.940435723102</v>
       </c>
       <c r="AD7" t="n">
-        <v>1034174.10851191</v>
+        <v>1124654.198207591</v>
       </c>
       <c r="AE7" t="n">
-        <v>1415002.639807644</v>
+        <v>1538801.490229113</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.466229852675355e-06</v>
+        <v>2.177121422173149e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.09309895833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1279956.77383308</v>
+        <v>1391940.435723102</v>
       </c>
     </row>
     <row r="8">
@@ -16449,28 +16449,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1001.091671743646</v>
+        <v>1099.719543898178</v>
       </c>
       <c r="AB8" t="n">
-        <v>1369.737790327202</v>
+        <v>1504.684796163662</v>
       </c>
       <c r="AC8" t="n">
-        <v>1239.011938057436</v>
+        <v>1361.079791056176</v>
       </c>
       <c r="AD8" t="n">
-        <v>1001091.671743646</v>
+        <v>1099719.543898178</v>
       </c>
       <c r="AE8" t="n">
-        <v>1369737.790327202</v>
+        <v>1504684.796163662</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.479067076171698e-06</v>
+        <v>2.196182686151724e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.90104166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1239011.938057436</v>
+        <v>1361079.791056176</v>
       </c>
     </row>
     <row r="9">
@@ -16555,28 +16555,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>971.3185784339901</v>
+        <v>1061.883919475692</v>
       </c>
       <c r="AB9" t="n">
-        <v>1329.000930564755</v>
+        <v>1452.916425638873</v>
       </c>
       <c r="AC9" t="n">
-        <v>1202.162947016175</v>
+        <v>1314.252121156909</v>
       </c>
       <c r="AD9" t="n">
-        <v>971318.57843399</v>
+        <v>1061883.919475692</v>
       </c>
       <c r="AE9" t="n">
-        <v>1329000.930564755</v>
+        <v>1452916.425638873</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.495188240562454e-06</v>
+        <v>2.220120087427145e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1202162.947016175</v>
+        <v>1314252.121156909</v>
       </c>
     </row>
     <row r="10">
@@ -16661,28 +16661,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>944.8780283956006</v>
+        <v>1035.443369437303</v>
       </c>
       <c r="AB10" t="n">
-        <v>1292.823803527489</v>
+        <v>1416.739298601607</v>
       </c>
       <c r="AC10" t="n">
-        <v>1169.438514208429</v>
+        <v>1281.527688349163</v>
       </c>
       <c r="AD10" t="n">
-        <v>944878.0283956006</v>
+        <v>1035443.369437303</v>
       </c>
       <c r="AE10" t="n">
-        <v>1292823.803527489</v>
+        <v>1416739.298601607</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.506433250291809e-06</v>
+        <v>2.236817163625433e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.50390625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1169438.514208429</v>
+        <v>1281527.688349163</v>
       </c>
     </row>
     <row r="11">
@@ -16767,28 +16767,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>921.289034244267</v>
+        <v>1011.683783085377</v>
       </c>
       <c r="AB11" t="n">
-        <v>1260.54830105666</v>
+        <v>1384.23038435593</v>
       </c>
       <c r="AC11" t="n">
-        <v>1140.243340394463</v>
+        <v>1252.121379252546</v>
       </c>
       <c r="AD11" t="n">
-        <v>921289.034244267</v>
+        <v>1011683.783085377</v>
       </c>
       <c r="AE11" t="n">
-        <v>1260548.30105666</v>
+        <v>1384230.38435593</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.515090912649808e-06</v>
+        <v>2.249672434680751e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.38020833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1140243.340394463</v>
+        <v>1252121.379252546</v>
       </c>
     </row>
     <row r="12">
@@ -16873,28 +16873,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>912.5144846608177</v>
+        <v>1002.909233501927</v>
       </c>
       <c r="AB12" t="n">
-        <v>1248.542575210777</v>
+        <v>1372.224658510048</v>
       </c>
       <c r="AC12" t="n">
-        <v>1129.38342417317</v>
+        <v>1241.261463031252</v>
       </c>
       <c r="AD12" t="n">
-        <v>912514.4846608178</v>
+        <v>1002909.233501927</v>
       </c>
       <c r="AE12" t="n">
-        <v>1248542.575210777</v>
+        <v>1372224.658510048</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.519170960427716e-06</v>
+        <v>2.25573066586774e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.32486979166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1129383.42417317</v>
+        <v>1241261.463031252</v>
       </c>
     </row>
     <row r="13">
@@ -16979,28 +16979,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>915.9132700229341</v>
+        <v>1006.308018864044</v>
       </c>
       <c r="AB13" t="n">
-        <v>1253.192943287052</v>
+        <v>1376.875026586323</v>
       </c>
       <c r="AC13" t="n">
-        <v>1133.589967647078</v>
+        <v>1245.46800650516</v>
       </c>
       <c r="AD13" t="n">
-        <v>915913.2700229341</v>
+        <v>1006308.018864044</v>
       </c>
       <c r="AE13" t="n">
-        <v>1253192.943287052</v>
+        <v>1376875.026586323</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.519071447067279e-06</v>
+        <v>2.255582904131472e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.32486979166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1133589.967647078</v>
+        <v>1245468.00650516</v>
       </c>
     </row>
   </sheetData>
@@ -17276,28 +17276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2777.766748973283</v>
+        <v>2944.680938351053</v>
       </c>
       <c r="AB2" t="n">
-        <v>3800.663012365535</v>
+        <v>4029.042370006542</v>
       </c>
       <c r="AC2" t="n">
-        <v>3437.933068729265</v>
+        <v>3644.516221009448</v>
       </c>
       <c r="AD2" t="n">
-        <v>2777766.748973283</v>
+        <v>2944680.938351053</v>
       </c>
       <c r="AE2" t="n">
-        <v>3800663.012365535</v>
+        <v>4029042.370006542</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.262426867036126e-07</v>
+        <v>1.214942344609451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.41471354166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3437933.068729265</v>
+        <v>3644516.221009448</v>
       </c>
     </row>
     <row r="3">
@@ -17382,28 +17382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1594.299269414453</v>
+        <v>1711.147762916915</v>
       </c>
       <c r="AB3" t="n">
-        <v>2181.39059593259</v>
+        <v>2341.26785973437</v>
       </c>
       <c r="AC3" t="n">
-        <v>1973.201739057713</v>
+        <v>2117.8205411914</v>
       </c>
       <c r="AD3" t="n">
-        <v>1594299.269414453</v>
+        <v>1711147.762916915</v>
       </c>
       <c r="AE3" t="n">
-        <v>2181390.59593259</v>
+        <v>2341267.85973437</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162238945658138e-06</v>
+        <v>1.709005516608999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.30794270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1973201.739057713</v>
+        <v>2117820.5411914</v>
       </c>
     </row>
     <row r="4">
@@ -17488,28 +17488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1350.92032155143</v>
+        <v>1459.495560278265</v>
       </c>
       <c r="AB4" t="n">
-        <v>1848.388782345009</v>
+        <v>1996.946213972537</v>
       </c>
       <c r="AC4" t="n">
-        <v>1671.98115118795</v>
+        <v>1806.360470042611</v>
       </c>
       <c r="AD4" t="n">
-        <v>1350920.32155143</v>
+        <v>1459495.560278265</v>
       </c>
       <c r="AE4" t="n">
-        <v>1848388.782345009</v>
+        <v>1996946.213972537</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28509306239717e-06</v>
+        <v>1.889655428599547e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.697265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1671981.15118795</v>
+        <v>1806360.470042611</v>
       </c>
     </row>
     <row r="5">
@@ -17594,28 +17594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1242.110738424002</v>
+        <v>1342.24221968317</v>
       </c>
       <c r="AB5" t="n">
-        <v>1699.510710370046</v>
+        <v>1836.515020518022</v>
       </c>
       <c r="AC5" t="n">
-        <v>1537.311793450591</v>
+        <v>1661.240604524801</v>
       </c>
       <c r="AD5" t="n">
-        <v>1242110.738424002</v>
+        <v>1342242.21968317</v>
       </c>
       <c r="AE5" t="n">
-        <v>1699510.710370046</v>
+        <v>1836515.020518022</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350907767793079e-06</v>
+        <v>1.986432167165913e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.49609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1537311.793450591</v>
+        <v>1661240.604524801</v>
       </c>
     </row>
     <row r="6">
@@ -17700,28 +17700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1176.564261910303</v>
+        <v>1276.780994515492</v>
       </c>
       <c r="AB6" t="n">
-        <v>1609.827129497546</v>
+        <v>1746.948084298171</v>
       </c>
       <c r="AC6" t="n">
-        <v>1456.187487664866</v>
+        <v>1580.221810989789</v>
       </c>
       <c r="AD6" t="n">
-        <v>1176564.261910303</v>
+        <v>1276780.994515492</v>
       </c>
       <c r="AE6" t="n">
-        <v>1609827.129497546</v>
+        <v>1746948.084298171</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.38903154528908e-06</v>
+        <v>2.042490989061393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.84830729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1456187.487664866</v>
+        <v>1580221.810989789</v>
       </c>
     </row>
     <row r="7">
@@ -17806,28 +17806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1135.432474750413</v>
+        <v>1227.290790742506</v>
       </c>
       <c r="AB7" t="n">
-        <v>1553.548803699003</v>
+        <v>1679.233404142275</v>
       </c>
       <c r="AC7" t="n">
-        <v>1405.28028629341</v>
+        <v>1518.969724869821</v>
       </c>
       <c r="AD7" t="n">
-        <v>1135432.474750413</v>
+        <v>1227290.790742506</v>
       </c>
       <c r="AE7" t="n">
-        <v>1553548.803699003</v>
+        <v>1679233.404142275</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416039950318216e-06</v>
+        <v>2.082205295110108e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.41536458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1405280.28629341</v>
+        <v>1518969.724869821</v>
       </c>
     </row>
     <row r="8">
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1081.742776300616</v>
+        <v>1181.874168051233</v>
       </c>
       <c r="AB8" t="n">
-        <v>1480.088189657665</v>
+        <v>1617.092377336093</v>
       </c>
       <c r="AC8" t="n">
-        <v>1338.830650153558</v>
+        <v>1462.759350446541</v>
       </c>
       <c r="AD8" t="n">
-        <v>1081742.776300616</v>
+        <v>1181874.168051233</v>
       </c>
       <c r="AE8" t="n">
-        <v>1480088.189657665</v>
+        <v>1617092.377336093</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.445485937028683e-06</v>
+        <v>2.12550392480943e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.95963541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1338830.650153558</v>
+        <v>1462759.350446542</v>
       </c>
     </row>
     <row r="9">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1070.793740955877</v>
+        <v>1170.925132706494</v>
       </c>
       <c r="AB9" t="n">
-        <v>1465.107236461644</v>
+        <v>1602.111424140072</v>
       </c>
       <c r="AC9" t="n">
-        <v>1325.279458104665</v>
+        <v>1449.208158397649</v>
       </c>
       <c r="AD9" t="n">
-        <v>1070793.740955877</v>
+        <v>1170925.132706494</v>
       </c>
       <c r="AE9" t="n">
-        <v>1465107.236461644</v>
+        <v>1602111.424140072</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.448508538313532e-06</v>
+        <v>2.129948486136182e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.91080729166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1325279.458104665</v>
+        <v>1449208.158397649</v>
       </c>
     </row>
     <row r="10">
@@ -18124,28 +18124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1045.877539010429</v>
+        <v>1137.821106348543</v>
       </c>
       <c r="AB10" t="n">
-        <v>1431.015789734632</v>
+        <v>1556.817034830553</v>
       </c>
       <c r="AC10" t="n">
-        <v>1294.441651205633</v>
+        <v>1408.236602032756</v>
       </c>
       <c r="AD10" t="n">
-        <v>1045877.539010429</v>
+        <v>1137821.106348543</v>
       </c>
       <c r="AE10" t="n">
-        <v>1431015.789734632</v>
+        <v>1556817.034830553</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.461573976125461e-06</v>
+        <v>2.149160460903431e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.71549479166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1294441.651205633</v>
+        <v>1408236.602032756</v>
       </c>
     </row>
     <row r="11">
@@ -18230,28 +18230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1026.070792692</v>
+        <v>1118.014360030114</v>
       </c>
       <c r="AB11" t="n">
-        <v>1403.915325609781</v>
+        <v>1529.716570705702</v>
       </c>
       <c r="AC11" t="n">
-        <v>1269.927617341117</v>
+        <v>1383.72256816824</v>
       </c>
       <c r="AD11" t="n">
-        <v>1026070.792692</v>
+        <v>1118014.360030114</v>
       </c>
       <c r="AE11" t="n">
-        <v>1403915.325609781</v>
+        <v>1529716.570705702</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.470056760376489e-06</v>
+        <v>2.16163390720754e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.591796875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1269927.617341117</v>
+        <v>1383722.56816824</v>
       </c>
     </row>
     <row r="12">
@@ -18336,28 +18336,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1003.558540882644</v>
+        <v>1095.331516020166</v>
       </c>
       <c r="AB12" t="n">
-        <v>1373.113069513765</v>
+        <v>1498.680902834839</v>
       </c>
       <c r="AC12" t="n">
-        <v>1242.065085335667</v>
+        <v>1355.648900880139</v>
       </c>
       <c r="AD12" t="n">
-        <v>1003558.540882644</v>
+        <v>1095331.516020166</v>
       </c>
       <c r="AE12" t="n">
-        <v>1373113.069513765</v>
+        <v>1498680.902834839</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.477759518489492e-06</v>
+        <v>2.172960369943455e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.47786458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1242065.085335667</v>
+        <v>1355648.900880139</v>
       </c>
     </row>
     <row r="13">
@@ -18442,28 +18442,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>984.5816303835807</v>
+        <v>1076.354605521102</v>
       </c>
       <c r="AB13" t="n">
-        <v>1347.148023366741</v>
+        <v>1472.715856687816</v>
       </c>
       <c r="AC13" t="n">
-        <v>1218.578106750745</v>
+        <v>1332.161922295217</v>
       </c>
       <c r="AD13" t="n">
-        <v>984581.6303835807</v>
+        <v>1076354.605521102</v>
       </c>
       <c r="AE13" t="n">
-        <v>1347148.023366741</v>
+        <v>1472715.856687816</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.484194734128203e-06</v>
+        <v>2.182422984381056e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.38671875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1218578.106750745</v>
+        <v>1332161.922295216</v>
       </c>
     </row>
     <row r="14">
@@ -18548,28 +18548,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>969.3901628678287</v>
+        <v>1061.16313800535</v>
       </c>
       <c r="AB14" t="n">
-        <v>1326.362387311443</v>
+        <v>1451.930220632517</v>
       </c>
       <c r="AC14" t="n">
-        <v>1199.77622262774</v>
+        <v>1313.360038172212</v>
       </c>
       <c r="AD14" t="n">
-        <v>969390.1628678287</v>
+        <v>1061163.13800535</v>
       </c>
       <c r="AE14" t="n">
-        <v>1326362.387311443</v>
+        <v>1451930.220632517</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.48897239422361e-06</v>
+        <v>2.189448258736243e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.31510416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1199776.222627741</v>
+        <v>1313360.038172212</v>
       </c>
     </row>
     <row r="15">
@@ -18654,28 +18654,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>968.6751632823634</v>
+        <v>1060.448138419885</v>
       </c>
       <c r="AB15" t="n">
-        <v>1325.384093335054</v>
+        <v>1450.951926656128</v>
       </c>
       <c r="AC15" t="n">
-        <v>1198.891295655414</v>
+        <v>1312.475111199886</v>
       </c>
       <c r="AD15" t="n">
-        <v>968675.1632823634</v>
+        <v>1060448.138419885</v>
       </c>
       <c r="AE15" t="n">
-        <v>1325384.093335054</v>
+        <v>1450951.926656128</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.488874890956356e-06</v>
+        <v>2.189304885790219e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.318359375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1198891.295655414</v>
+        <v>1312475.111199886</v>
       </c>
     </row>
     <row r="16">
@@ -18760,28 +18760,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>969.2726852324039</v>
+        <v>1061.045660369925</v>
       </c>
       <c r="AB16" t="n">
-        <v>1326.201649227907</v>
+        <v>1451.769482548981</v>
       </c>
       <c r="AC16" t="n">
-        <v>1199.6308251613</v>
+        <v>1313.214640705772</v>
       </c>
       <c r="AD16" t="n">
-        <v>969272.6852324039</v>
+        <v>1061045.660369925</v>
       </c>
       <c r="AE16" t="n">
-        <v>1326201.649227907</v>
+        <v>1451769.482548981</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.491312472637686e-06</v>
+        <v>2.192889209440826e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.28255208333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1199630.8251613</v>
+        <v>1313214.640705772</v>
       </c>
     </row>
   </sheetData>
@@ -19057,28 +19057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3987.280667227792</v>
+        <v>4184.495964818771</v>
       </c>
       <c r="AB2" t="n">
-        <v>5455.573315309564</v>
+        <v>5725.411985998434</v>
       </c>
       <c r="AC2" t="n">
-        <v>4934.901055041451</v>
+        <v>5178.986701720718</v>
       </c>
       <c r="AD2" t="n">
-        <v>3987280.667227792</v>
+        <v>4184495.964818771</v>
       </c>
       <c r="AE2" t="n">
-        <v>5455573.315309565</v>
+        <v>5725411.985998434</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.745977192205797e-07</v>
+        <v>9.759894332275488e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.41666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4934901.055041451</v>
+        <v>5178986.701720718</v>
       </c>
     </row>
     <row r="3">
@@ -19163,28 +19163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1978.82118744432</v>
+        <v>2107.380523368665</v>
       </c>
       <c r="AB3" t="n">
-        <v>2707.510448090824</v>
+        <v>2883.41100314013</v>
       </c>
       <c r="AC3" t="n">
-        <v>2449.109450939815</v>
+        <v>2608.222303893196</v>
       </c>
       <c r="AD3" t="n">
-        <v>1978821.18744432</v>
+        <v>2107380.523368665</v>
       </c>
       <c r="AE3" t="n">
-        <v>2707510.448090824</v>
+        <v>2883411.00314013</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.039942075528377e-06</v>
+        <v>1.504559603399053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.45963541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2449109.450939815</v>
+        <v>2608222.303893196</v>
       </c>
     </row>
     <row r="4">
@@ -19269,28 +19269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1621.836533525205</v>
+        <v>1741.81378473267</v>
       </c>
       <c r="AB4" t="n">
-        <v>2219.068295547272</v>
+        <v>2383.226463672086</v>
       </c>
       <c r="AC4" t="n">
-        <v>2007.283531902154</v>
+        <v>2155.774674858571</v>
       </c>
       <c r="AD4" t="n">
-        <v>1621836.533525205</v>
+        <v>1741813.78473267</v>
       </c>
       <c r="AE4" t="n">
-        <v>2219068.295547272</v>
+        <v>2383226.463672086</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.178381423320435e-06</v>
+        <v>1.704849845625298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.99609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2007283.531902154</v>
+        <v>2155774.674858571</v>
       </c>
     </row>
     <row r="5">
@@ -19375,28 +19375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1477.571481179076</v>
+        <v>1588.881485832192</v>
       </c>
       <c r="AB5" t="n">
-        <v>2021.678486402375</v>
+        <v>2173.977745419596</v>
       </c>
       <c r="AC5" t="n">
-        <v>1828.732329103708</v>
+        <v>1966.496360593679</v>
       </c>
       <c r="AD5" t="n">
-        <v>1477571.481179076</v>
+        <v>1588881.485832192</v>
       </c>
       <c r="AE5" t="n">
-        <v>2021678.486402375</v>
+        <v>2173977.745419596</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.251600874430035e-06</v>
+        <v>1.810781734443802e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1828732.329103708</v>
+        <v>1966496.360593679</v>
       </c>
     </row>
     <row r="6">
@@ -19481,28 +19481,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1391.808822955132</v>
+        <v>1494.792765455082</v>
       </c>
       <c r="AB6" t="n">
-        <v>1904.334233838926</v>
+        <v>2045.241407298248</v>
       </c>
       <c r="AC6" t="n">
-        <v>1722.587247311222</v>
+        <v>1850.046437900047</v>
       </c>
       <c r="AD6" t="n">
-        <v>1391808.822955132</v>
+        <v>1494792.765455082</v>
       </c>
       <c r="AE6" t="n">
-        <v>1904334.233838926</v>
+        <v>2045241.407298248</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.296963053652178e-06</v>
+        <v>1.876410488184828e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.623046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1722587.247311222</v>
+        <v>1850046.437900047</v>
       </c>
     </row>
     <row r="7">
@@ -19587,28 +19587,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1339.392380836494</v>
+        <v>1433.794417636666</v>
       </c>
       <c r="AB7" t="n">
-        <v>1832.615745281984</v>
+        <v>1961.780776755911</v>
       </c>
       <c r="AC7" t="n">
-        <v>1657.713470644623</v>
+        <v>1774.551172798939</v>
       </c>
       <c r="AD7" t="n">
-        <v>1339392.380836494</v>
+        <v>1433794.417636666</v>
       </c>
       <c r="AE7" t="n">
-        <v>1832615.745281984</v>
+        <v>1961780.776755911</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.328961271360743e-06</v>
+        <v>1.922704629827876e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.05338541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1657713.470644623</v>
+        <v>1774551.172798939</v>
       </c>
     </row>
     <row r="8">
@@ -19693,28 +19693,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1292.542873166196</v>
+        <v>1395.441474811575</v>
       </c>
       <c r="AB8" t="n">
-        <v>1768.514182033075</v>
+        <v>1909.3045883702</v>
       </c>
       <c r="AC8" t="n">
-        <v>1599.729670625081</v>
+        <v>1727.083238181968</v>
       </c>
       <c r="AD8" t="n">
-        <v>1292542.873166196</v>
+        <v>1395441.474811575</v>
       </c>
       <c r="AE8" t="n">
-        <v>1768514.182033075</v>
+        <v>1909304.5883702</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.351830585781865e-06</v>
+        <v>1.955791325178642e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.66276041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1599729.670625081</v>
+        <v>1727083.238181968</v>
       </c>
     </row>
     <row r="9">
@@ -19799,28 +19799,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1258.541132989704</v>
+        <v>1352.857828935304</v>
       </c>
       <c r="AB9" t="n">
-        <v>1721.99150107269</v>
+        <v>1851.039765424419</v>
       </c>
       <c r="AC9" t="n">
-        <v>1557.647049040562</v>
+        <v>1674.37912816294</v>
       </c>
       <c r="AD9" t="n">
-        <v>1258541.132989704</v>
+        <v>1352857.828935304</v>
       </c>
       <c r="AE9" t="n">
-        <v>1721991.501072689</v>
+        <v>1851039.765424419</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.371594190837155e-06</v>
+        <v>1.984384765605231e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.333984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1557647.049040562</v>
+        <v>1674379.12816294</v>
       </c>
     </row>
     <row r="10">
@@ -19905,28 +19905,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1244.753811165243</v>
+        <v>1339.070507110843</v>
       </c>
       <c r="AB10" t="n">
-        <v>1703.127079098751</v>
+        <v>1832.175343450481</v>
       </c>
       <c r="AC10" t="n">
-        <v>1540.583021023434</v>
+        <v>1657.315100145812</v>
       </c>
       <c r="AD10" t="n">
-        <v>1244753.811165243</v>
+        <v>1339070.507110843</v>
       </c>
       <c r="AE10" t="n">
-        <v>1703127.079098751</v>
+        <v>1832175.343450481</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.378276171593944e-06</v>
+        <v>1.99405207165422e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.2265625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1540583.021023434</v>
+        <v>1657315.100145812</v>
       </c>
     </row>
     <row r="11">
@@ -20011,28 +20011,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1218.759943786501</v>
+        <v>1313.076639732102</v>
       </c>
       <c r="AB11" t="n">
-        <v>1667.561122982663</v>
+        <v>1796.609387334393</v>
       </c>
       <c r="AC11" t="n">
-        <v>1508.411429841932</v>
+        <v>1625.14350896431</v>
       </c>
       <c r="AD11" t="n">
-        <v>1218759.943786501</v>
+        <v>1313076.639732101</v>
       </c>
       <c r="AE11" t="n">
-        <v>1667561.122982663</v>
+        <v>1796609.387334393</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.392393032347723e-06</v>
+        <v>2.014475957673212e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.001953125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1508411.429841932</v>
+        <v>1625143.50896431</v>
       </c>
     </row>
     <row r="12">
@@ -20117,28 +20117,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1192.707411179933</v>
+        <v>1295.520671970741</v>
       </c>
       <c r="AB12" t="n">
-        <v>1631.914898513737</v>
+        <v>1772.588537728664</v>
       </c>
       <c r="AC12" t="n">
-        <v>1476.16723100653</v>
+        <v>1603.415175531478</v>
       </c>
       <c r="AD12" t="n">
-        <v>1192707.411179933</v>
+        <v>1295520.67197074</v>
       </c>
       <c r="AE12" t="n">
-        <v>1631914.898513737</v>
+        <v>1772588.537728664</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.400204361964814e-06</v>
+        <v>2.025777174603721e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.87825520833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1476167.23100653</v>
+        <v>1603415.175531478</v>
       </c>
     </row>
     <row r="13">
@@ -20223,28 +20223,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1175.133005196585</v>
+        <v>1269.534952488206</v>
       </c>
       <c r="AB13" t="n">
-        <v>1607.868820919247</v>
+        <v>1737.033729923626</v>
       </c>
       <c r="AC13" t="n">
-        <v>1454.416077308777</v>
+        <v>1571.253668681866</v>
       </c>
       <c r="AD13" t="n">
-        <v>1175133.005196585</v>
+        <v>1269534.952488206</v>
       </c>
       <c r="AE13" t="n">
-        <v>1607868.820919247</v>
+        <v>1737033.729923626</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.408015691581905e-06</v>
+        <v>2.03707839153423e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.7578125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1454416.077308777</v>
+        <v>1571253.668681866</v>
       </c>
     </row>
     <row r="14">
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1160.881035554496</v>
+        <v>1255.282982846118</v>
       </c>
       <c r="AB14" t="n">
-        <v>1588.368647302416</v>
+        <v>1717.533556306795</v>
       </c>
       <c r="AC14" t="n">
-        <v>1436.776972893271</v>
+        <v>1553.61456426636</v>
       </c>
       <c r="AD14" t="n">
-        <v>1160881.035554496</v>
+        <v>1255282.982846118</v>
       </c>
       <c r="AE14" t="n">
-        <v>1588368.647302416</v>
+        <v>1717533.556306795</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.414415335123618e-06</v>
+        <v>2.046337219862839e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.66015625</v>
       </c>
       <c r="AH14" t="n">
-        <v>1436776.972893271</v>
+        <v>1553614.56426636</v>
       </c>
     </row>
     <row r="15">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1141.702526856318</v>
+        <v>1236.104474147939</v>
       </c>
       <c r="AB15" t="n">
-        <v>1562.127765605479</v>
+        <v>1691.292674609858</v>
       </c>
       <c r="AC15" t="n">
-        <v>1413.04048411618</v>
+        <v>1529.87807548927</v>
       </c>
       <c r="AD15" t="n">
-        <v>1141702.526856318</v>
+        <v>1236104.474147939</v>
       </c>
       <c r="AE15" t="n">
-        <v>1562127.765605479</v>
+        <v>1691292.674609858</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.421756102715583e-06</v>
+        <v>2.056957640592714e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.54947916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1413040.48411618</v>
+        <v>1529878.07548927</v>
       </c>
     </row>
     <row r="16">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1121.822097381847</v>
+        <v>1216.053452472876</v>
       </c>
       <c r="AB16" t="n">
-        <v>1534.926484935859</v>
+        <v>1663.857982165391</v>
       </c>
       <c r="AC16" t="n">
-        <v>1388.435255496432</v>
+        <v>1505.061711586871</v>
       </c>
       <c r="AD16" t="n">
-        <v>1121822.097381847</v>
+        <v>1216053.452472876</v>
       </c>
       <c r="AE16" t="n">
-        <v>1534926.484935859</v>
+        <v>1663857.982165391</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.430696781192976e-06</v>
+        <v>2.069892768404743e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.41276041666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1388435.255496432</v>
+        <v>1505061.711586871</v>
       </c>
     </row>
     <row r="17">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1114.101471118138</v>
+        <v>1208.332826209167</v>
       </c>
       <c r="AB17" t="n">
-        <v>1524.362783471862</v>
+        <v>1653.294280701393</v>
       </c>
       <c r="AC17" t="n">
-        <v>1378.87973887391</v>
+        <v>1495.506194964348</v>
       </c>
       <c r="AD17" t="n">
-        <v>1114101.471118138</v>
+        <v>1208332.826209167</v>
       </c>
       <c r="AE17" t="n">
-        <v>1524362.783471862</v>
+        <v>1653294.280701393</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.428532195877397e-06</v>
+        <v>2.06676110588183e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.4453125</v>
       </c>
       <c r="AH17" t="n">
-        <v>1378879.73887391</v>
+        <v>1495506.194964348</v>
       </c>
     </row>
     <row r="18">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1100.417416990948</v>
+        <v>1194.648772081977</v>
       </c>
       <c r="AB18" t="n">
-        <v>1505.639656917179</v>
+        <v>1634.571154146711</v>
       </c>
       <c r="AC18" t="n">
-        <v>1361.943521239533</v>
+        <v>1478.569977329972</v>
       </c>
       <c r="AD18" t="n">
-        <v>1100417.416990948</v>
+        <v>1194648.772081977</v>
       </c>
       <c r="AE18" t="n">
-        <v>1505639.656917179</v>
+        <v>1634571.154146711</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.433708378153782e-06</v>
+        <v>2.074249864088794e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.3671875</v>
       </c>
       <c r="AH18" t="n">
-        <v>1361943.521239533</v>
+        <v>1478569.977329972</v>
       </c>
     </row>
     <row r="19">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1088.004290421623</v>
+        <v>1182.235645512652</v>
       </c>
       <c r="AB19" t="n">
-        <v>1488.655469516534</v>
+        <v>1617.586966746066</v>
       </c>
       <c r="AC19" t="n">
-        <v>1346.580280846949</v>
+        <v>1463.206736937387</v>
       </c>
       <c r="AD19" t="n">
-        <v>1088004.290421624</v>
+        <v>1182235.645512652</v>
       </c>
       <c r="AE19" t="n">
-        <v>1488655.469516534</v>
+        <v>1617586.966746066</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.436814087519614e-06</v>
+        <v>2.078743119012972e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.32161458333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1346580.280846949</v>
+        <v>1463206.736937387</v>
       </c>
     </row>
     <row r="20">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1078.586185202873</v>
+        <v>1172.817540293902</v>
       </c>
       <c r="AB20" t="n">
-        <v>1475.769202458762</v>
+        <v>1604.700699688294</v>
       </c>
       <c r="AC20" t="n">
-        <v>1334.923861031182</v>
+        <v>1451.55031712162</v>
       </c>
       <c r="AD20" t="n">
-        <v>1078586.185202873</v>
+        <v>1172817.540293902</v>
       </c>
       <c r="AE20" t="n">
-        <v>1475769.202458762</v>
+        <v>1604700.699688294</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.438225773594992e-06</v>
+        <v>2.080785507614871e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1334923.861031182</v>
+        <v>1451550.31712162</v>
       </c>
     </row>
     <row r="21">
@@ -21071,28 +21071,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1076.138242516593</v>
+        <v>1170.369597607622</v>
       </c>
       <c r="AB21" t="n">
-        <v>1472.419819279785</v>
+        <v>1601.351316509317</v>
       </c>
       <c r="AC21" t="n">
-        <v>1331.894138281917</v>
+        <v>1448.520594372355</v>
       </c>
       <c r="AD21" t="n">
-        <v>1076138.242516594</v>
+        <v>1170369.597607622</v>
       </c>
       <c r="AE21" t="n">
-        <v>1472419.819279785</v>
+        <v>1601351.316509317</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.44001390929047e-06</v>
+        <v>2.083372533177277e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.27278645833333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1331894.138281917</v>
+        <v>1448520.594372355</v>
       </c>
     </row>
     <row r="22">
@@ -21177,28 +21177,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1078.868855541469</v>
+        <v>1173.100210632497</v>
       </c>
       <c r="AB22" t="n">
-        <v>1476.155964486564</v>
+        <v>1605.087461716096</v>
       </c>
       <c r="AC22" t="n">
-        <v>1335.273711033874</v>
+        <v>1451.900167124312</v>
       </c>
       <c r="AD22" t="n">
-        <v>1078868.855541469</v>
+        <v>1173100.210632497</v>
       </c>
       <c r="AE22" t="n">
-        <v>1476155.964486564</v>
+        <v>1605087.461716096</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.440108021695495e-06</v>
+        <v>2.083508692417404e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.27278645833333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1335273.711033874</v>
+        <v>1451900.167124312</v>
       </c>
     </row>
     <row r="23">
@@ -21283,28 +21283,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1083.073618770152</v>
+        <v>1177.30497386118</v>
       </c>
       <c r="AB23" t="n">
-        <v>1481.909107037109</v>
+        <v>1610.840604266641</v>
       </c>
       <c r="AC23" t="n">
-        <v>1340.477781733981</v>
+        <v>1457.10423782442</v>
       </c>
       <c r="AD23" t="n">
-        <v>1083073.618770152</v>
+        <v>1177304.97386118</v>
       </c>
       <c r="AE23" t="n">
-        <v>1481909.107037109</v>
+        <v>1610840.604266641</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.44001390929047e-06</v>
+        <v>2.083372533177277e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1340477.781733981</v>
+        <v>1457104.23782442</v>
       </c>
     </row>
   </sheetData>
@@ -21580,28 +21580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1905.564226153538</v>
+        <v>2043.107642263348</v>
       </c>
       <c r="AB2" t="n">
-        <v>2607.277041783737</v>
+        <v>2795.470011692441</v>
       </c>
       <c r="AC2" t="n">
-        <v>2358.442180252208</v>
+        <v>2528.674277243318</v>
       </c>
       <c r="AD2" t="n">
-        <v>1905564.226153538</v>
+        <v>2043107.642263348</v>
       </c>
       <c r="AE2" t="n">
-        <v>2607277.041783737</v>
+        <v>2795470.011692442</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.010312488948083e-06</v>
+        <v>1.517170720020552e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.80598958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2358442.180252208</v>
+        <v>2528674.277243318</v>
       </c>
     </row>
     <row r="3">
@@ -21686,28 +21686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1247.61059143577</v>
+        <v>1352.685519266764</v>
       </c>
       <c r="AB3" t="n">
-        <v>1707.035851897138</v>
+        <v>1850.804003734157</v>
       </c>
       <c r="AC3" t="n">
-        <v>1544.11874603194</v>
+        <v>1674.165867237502</v>
       </c>
       <c r="AD3" t="n">
-        <v>1247610.591435771</v>
+        <v>1352685.519266764</v>
       </c>
       <c r="AE3" t="n">
-        <v>1707035.851897138</v>
+        <v>1850804.003734157</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.305373014290373e-06</v>
+        <v>1.960258571136098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1544118.74603194</v>
+        <v>1674165.867237502</v>
       </c>
     </row>
     <row r="4">
@@ -21792,28 +21792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1089.42759241645</v>
+        <v>1186.577303214837</v>
       </c>
       <c r="AB4" t="n">
-        <v>1490.602894097508</v>
+        <v>1623.527414354616</v>
       </c>
       <c r="AC4" t="n">
-        <v>1348.341845959143</v>
+        <v>1468.580236563647</v>
       </c>
       <c r="AD4" t="n">
-        <v>1089427.59241645</v>
+        <v>1186577.303214837</v>
       </c>
       <c r="AE4" t="n">
-        <v>1490602.894097508</v>
+        <v>1623527.414354616</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.409937251532103e-06</v>
+        <v>2.117281077380289e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.505859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1348341.845959143</v>
+        <v>1468580.236563647</v>
       </c>
     </row>
     <row r="5">
@@ -21898,28 +21898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1011.10473134789</v>
+        <v>1108.169101291705</v>
       </c>
       <c r="AB5" t="n">
-        <v>1383.438100222741</v>
+        <v>1516.24585335765</v>
       </c>
       <c r="AC5" t="n">
-        <v>1251.404709605051</v>
+        <v>1371.537477177616</v>
       </c>
       <c r="AD5" t="n">
-        <v>1011104.73134789</v>
+        <v>1108169.101291705</v>
       </c>
       <c r="AE5" t="n">
-        <v>1383438.100222741</v>
+        <v>1516245.85335765</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.464001136610348e-06</v>
+        <v>2.198467981777237e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.63997395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1251404.709605051</v>
+        <v>1371537.477177616</v>
       </c>
     </row>
     <row r="6">
@@ -22004,28 +22004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>963.8452265619587</v>
+        <v>1052.813876781127</v>
       </c>
       <c r="AB6" t="n">
-        <v>1318.775560832427</v>
+        <v>1440.506393082126</v>
       </c>
       <c r="AC6" t="n">
-        <v>1192.913472219704</v>
+        <v>1303.026484689788</v>
       </c>
       <c r="AD6" t="n">
-        <v>963845.2265619587</v>
+        <v>1052813.876781126</v>
       </c>
       <c r="AE6" t="n">
-        <v>1318775.560832427</v>
+        <v>1440506.393082126</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.497905606913655e-06</v>
+        <v>2.249381803178713e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.12565104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1192913.472219704</v>
+        <v>1303026.484689787</v>
       </c>
     </row>
     <row r="7">
@@ -22110,28 +22110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>927.2445674727119</v>
+        <v>1024.223596561956</v>
       </c>
       <c r="AB7" t="n">
-        <v>1268.696924359401</v>
+        <v>1401.387910372112</v>
       </c>
       <c r="AC7" t="n">
-        <v>1147.614270525856</v>
+        <v>1267.641415066483</v>
       </c>
       <c r="AD7" t="n">
-        <v>927244.5674727119</v>
+        <v>1024223.596561956</v>
       </c>
       <c r="AE7" t="n">
-        <v>1268696.924359401</v>
+        <v>1401387.910372112</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.513076075607927e-06</v>
+        <v>2.272163062604598e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.904296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1147614.270525856</v>
+        <v>1267641.415066482</v>
       </c>
     </row>
     <row r="8">
@@ -22216,28 +22216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>890.107599211415</v>
+        <v>979.1615007766034</v>
       </c>
       <c r="AB8" t="n">
-        <v>1217.884486016884</v>
+        <v>1339.731962919233</v>
       </c>
       <c r="AC8" t="n">
-        <v>1101.651299983044</v>
+        <v>1211.86982470384</v>
       </c>
       <c r="AD8" t="n">
-        <v>890107.599211415</v>
+        <v>979161.5007766034</v>
       </c>
       <c r="AE8" t="n">
-        <v>1217884.486016884</v>
+        <v>1339731.962919233</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.534762718774907e-06</v>
+        <v>2.304729560978515e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.59505208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1101651.299983044</v>
+        <v>1211869.82470384</v>
       </c>
     </row>
     <row r="9">
@@ -22322,28 +22322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>865.1860080238459</v>
+        <v>954.0693173884421</v>
       </c>
       <c r="AB9" t="n">
-        <v>1183.785665491046</v>
+        <v>1305.399730618547</v>
       </c>
       <c r="AC9" t="n">
-        <v>1070.806823030196</v>
+        <v>1180.814212468341</v>
       </c>
       <c r="AD9" t="n">
-        <v>865186.008023846</v>
+        <v>954069.3173884421</v>
       </c>
       <c r="AE9" t="n">
-        <v>1183785.665491046</v>
+        <v>1305399.730618547</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.545758763197601e-06</v>
+        <v>2.321242151703318e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.44205729166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1070806.823030196</v>
+        <v>1180814.212468341</v>
       </c>
     </row>
     <row r="10">
@@ -22428,28 +22428,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>859.0502900385328</v>
+        <v>947.9335994031291</v>
       </c>
       <c r="AB10" t="n">
-        <v>1175.390505454767</v>
+        <v>1297.004570582268</v>
       </c>
       <c r="AC10" t="n">
-        <v>1063.212885285099</v>
+        <v>1173.220274723244</v>
       </c>
       <c r="AD10" t="n">
-        <v>859050.2900385328</v>
+        <v>947933.5994031291</v>
       </c>
       <c r="AE10" t="n">
-        <v>1175390.505454767</v>
+        <v>1297004.570582268</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.548405959077139e-06</v>
+        <v>2.325217405025956e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.40299479166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1063212.885285099</v>
+        <v>1173220.274723244</v>
       </c>
     </row>
     <row r="11">
@@ -22534,28 +22534,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>863.7977909560339</v>
+        <v>952.68110032063</v>
       </c>
       <c r="AB11" t="n">
-        <v>1181.886245655051</v>
+        <v>1303.500310782552</v>
       </c>
       <c r="AC11" t="n">
-        <v>1069.088681157496</v>
+        <v>1179.096070595641</v>
       </c>
       <c r="AD11" t="n">
-        <v>863797.7909560339</v>
+        <v>952681.10032063</v>
       </c>
       <c r="AE11" t="n">
-        <v>1181886.245655051</v>
+        <v>1303500.310782552</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.547998698172595e-06</v>
+        <v>2.324605827591704e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.40950520833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1069088.681157496</v>
+        <v>1179096.070595641</v>
       </c>
     </row>
   </sheetData>
@@ -22831,28 +22831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1395.683147525472</v>
+        <v>1513.385435206086</v>
       </c>
       <c r="AB2" t="n">
-        <v>1909.635255639201</v>
+        <v>2070.680718302271</v>
       </c>
       <c r="AC2" t="n">
-        <v>1727.38234703091</v>
+        <v>1873.057856766142</v>
       </c>
       <c r="AD2" t="n">
-        <v>1395683.147525472</v>
+        <v>1513385.435206086</v>
       </c>
       <c r="AE2" t="n">
-        <v>1909635.255639201</v>
+        <v>2070680.718302271</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18148294709445e-06</v>
+        <v>1.812095628965314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1727382.34703091</v>
+        <v>1873057.856766142</v>
       </c>
     </row>
     <row r="3">
@@ -22937,28 +22937,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>998.9651360484496</v>
+        <v>1093.178188607394</v>
       </c>
       <c r="AB3" t="n">
-        <v>1366.8281703729</v>
+        <v>1495.734625270584</v>
       </c>
       <c r="AC3" t="n">
-        <v>1236.380008147895</v>
+        <v>1352.98381191149</v>
       </c>
       <c r="AD3" t="n">
-        <v>998965.1360484496</v>
+        <v>1093178.188607394</v>
       </c>
       <c r="AE3" t="n">
-        <v>1366828.1703729</v>
+        <v>1495734.625270584</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.436127521239313e-06</v>
+        <v>2.20265591668037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.03971354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1236380.008147895</v>
+        <v>1352983.81191149</v>
       </c>
     </row>
     <row r="4">
@@ -23043,28 +23043,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>883.1376804351248</v>
+        <v>977.3506434855185</v>
       </c>
       <c r="AB4" t="n">
-        <v>1208.34793565605</v>
+        <v>1337.254268084185</v>
       </c>
       <c r="AC4" t="n">
-        <v>1093.024904604015</v>
+        <v>1209.628597586383</v>
       </c>
       <c r="AD4" t="n">
-        <v>883137.6804351248</v>
+        <v>977350.6434855185</v>
       </c>
       <c r="AE4" t="n">
-        <v>1208347.93565605</v>
+        <v>1337254.268084185</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524791771128986e-06</v>
+        <v>2.338644421690693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.64322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1093024.904604015</v>
+        <v>1209628.597586383</v>
       </c>
     </row>
     <row r="5">
@@ -23149,28 +23149,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>817.4967772389809</v>
+        <v>911.624399434803</v>
       </c>
       <c r="AB5" t="n">
-        <v>1118.535156030817</v>
+        <v>1247.324721336755</v>
       </c>
       <c r="AC5" t="n">
-        <v>1011.783730613186</v>
+        <v>1128.281800563616</v>
       </c>
       <c r="AD5" t="n">
-        <v>817496.777238981</v>
+        <v>911624.3994348029</v>
       </c>
       <c r="AE5" t="n">
-        <v>1118535.156030817</v>
+        <v>1247324.721336755</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.571245050377404e-06</v>
+        <v>2.409891987712848e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.97265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1011783.730613186</v>
+        <v>1128281.800563616</v>
       </c>
     </row>
     <row r="6">
@@ -23255,28 +23255,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>777.7271758358427</v>
+        <v>864.1672877487275</v>
       </c>
       <c r="AB6" t="n">
-        <v>1064.120632880057</v>
+        <v>1182.391807467862</v>
       </c>
       <c r="AC6" t="n">
-        <v>962.5624531806717</v>
+        <v>1069.545992860453</v>
       </c>
       <c r="AD6" t="n">
-        <v>777727.1758358426</v>
+        <v>864167.2877487275</v>
       </c>
       <c r="AE6" t="n">
-        <v>1064120.632880057</v>
+        <v>1182391.807467862</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.595426209438224e-06</v>
+        <v>2.446979761806573e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.63736979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>962562.4531806717</v>
+        <v>1069545.992860453</v>
       </c>
     </row>
     <row r="7">
@@ -23361,28 +23361,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>772.2319354578187</v>
+        <v>858.6720473707037</v>
       </c>
       <c r="AB7" t="n">
-        <v>1056.601802561949</v>
+        <v>1174.872977149754</v>
       </c>
       <c r="AC7" t="n">
-        <v>955.7612094753795</v>
+        <v>1062.744749155161</v>
       </c>
       <c r="AD7" t="n">
-        <v>772231.9354578188</v>
+        <v>858672.0473707037</v>
       </c>
       <c r="AE7" t="n">
-        <v>1056601.802561949</v>
+        <v>1174872.977149754</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.600516979766818e-06</v>
+        <v>2.454787714247357e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.56901041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>955761.2094753794</v>
+        <v>1062744.749155161</v>
       </c>
     </row>
     <row r="8">
@@ -23467,28 +23467,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>776.4924271076093</v>
+        <v>862.9325390204941</v>
       </c>
       <c r="AB8" t="n">
-        <v>1062.431195196818</v>
+        <v>1180.702369784624</v>
       </c>
       <c r="AC8" t="n">
-        <v>961.0342530587809</v>
+        <v>1068.017792738562</v>
       </c>
       <c r="AD8" t="n">
-        <v>776492.4271076092</v>
+        <v>862932.5390204941</v>
       </c>
       <c r="AE8" t="n">
-        <v>1062431.195196818</v>
+        <v>1180702.369784624</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.600623037481997e-06</v>
+        <v>2.454950379923207e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.56901041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>961034.2530587809</v>
+        <v>1068017.792738562</v>
       </c>
     </row>
   </sheetData>
@@ -44057,28 +44057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1093.502158598967</v>
+        <v>1193.189629278707</v>
       </c>
       <c r="AB2" t="n">
-        <v>1496.177895305602</v>
+        <v>1632.574690590439</v>
       </c>
       <c r="AC2" t="n">
-        <v>1353.384776876499</v>
+        <v>1476.764053453456</v>
       </c>
       <c r="AD2" t="n">
-        <v>1093502.158598967</v>
+        <v>1193189.629278707</v>
       </c>
       <c r="AE2" t="n">
-        <v>1496177.895305602</v>
+        <v>1632574.690590439</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.321149776858077e-06</v>
+        <v>2.06427046617845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1353384.776876499</v>
+        <v>1476764.053453456</v>
       </c>
     </row>
     <row r="3">
@@ -44163,28 +44163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>822.613937496914</v>
+        <v>914.4624663774188</v>
       </c>
       <c r="AB3" t="n">
-        <v>1125.536680448899</v>
+        <v>1251.207889734319</v>
       </c>
       <c r="AC3" t="n">
-        <v>1018.117039367508</v>
+        <v>1131.794364819377</v>
       </c>
       <c r="AD3" t="n">
-        <v>822613.9374969139</v>
+        <v>914462.4663774187</v>
       </c>
       <c r="AE3" t="n">
-        <v>1125536.680448899</v>
+        <v>1251207.889734318</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.544303625565047e-06</v>
+        <v>2.412943952991851e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1018117.039367508</v>
+        <v>1131794.364819377</v>
       </c>
     </row>
     <row r="4">
@@ -44269,28 +44269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>732.9450950366802</v>
+        <v>817.2107046816651</v>
       </c>
       <c r="AB4" t="n">
-        <v>1002.847814284672</v>
+        <v>1118.143738937267</v>
       </c>
       <c r="AC4" t="n">
-        <v>907.1374263950894</v>
+        <v>1011.429669817688</v>
       </c>
       <c r="AD4" t="n">
-        <v>732945.0950366802</v>
+        <v>817210.7046816651</v>
       </c>
       <c r="AE4" t="n">
-        <v>1002847.814284672</v>
+        <v>1118143.738937267</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.621431037384614e-06</v>
+        <v>2.533454012593532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.02473958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>907137.4263950894</v>
+        <v>1011429.669817688</v>
       </c>
     </row>
     <row r="5">
@@ -44375,28 +44375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>705.7552872364671</v>
+        <v>797.6037266084207</v>
       </c>
       <c r="AB5" t="n">
-        <v>965.6455197227585</v>
+        <v>1091.31660653863</v>
       </c>
       <c r="AC5" t="n">
-        <v>873.4856666124167</v>
+        <v>987.1628812830596</v>
       </c>
       <c r="AD5" t="n">
-        <v>705755.2872364671</v>
+        <v>797603.7266084207</v>
       </c>
       <c r="AE5" t="n">
-        <v>965645.5197227586</v>
+        <v>1091316.60653863</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.636242133537732e-06</v>
+        <v>2.556596058178492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.826171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>873485.6666124167</v>
+        <v>987162.8812830596</v>
       </c>
     </row>
     <row r="6">
@@ -44481,28 +44481,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>710.3323793444689</v>
+        <v>802.1808187164227</v>
       </c>
       <c r="AB6" t="n">
-        <v>971.9080990719791</v>
+        <v>1097.579185887851</v>
       </c>
       <c r="AC6" t="n">
-        <v>879.150554178133</v>
+        <v>992.8277688487758</v>
       </c>
       <c r="AD6" t="n">
-        <v>710332.3793444689</v>
+        <v>802180.8187164227</v>
       </c>
       <c r="AE6" t="n">
-        <v>971908.0990719791</v>
+        <v>1097579.185887851</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.636571269007801e-06</v>
+        <v>2.557110325858158e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>879150.554178133</v>
+        <v>992827.7688487758</v>
       </c>
     </row>
   </sheetData>
@@ -44778,28 +44778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>627.3755384034355</v>
+        <v>714.8766123134119</v>
       </c>
       <c r="AB2" t="n">
-        <v>858.4028894989306</v>
+        <v>978.1257190974965</v>
       </c>
       <c r="AC2" t="n">
-        <v>776.478122501174</v>
+        <v>884.7747732748994</v>
       </c>
       <c r="AD2" t="n">
-        <v>627375.5384034355</v>
+        <v>714876.6123134119</v>
       </c>
       <c r="AE2" t="n">
-        <v>858402.8894989305</v>
+        <v>978125.7190974965</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.623595657460537e-06</v>
+        <v>2.645935092761136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.61002604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>776478.122501174</v>
+        <v>884774.7732748995</v>
       </c>
     </row>
     <row r="3">
@@ -44884,28 +44884,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>588.6788193252756</v>
+        <v>676.0945523806803</v>
       </c>
       <c r="AB3" t="n">
-        <v>805.456331277433</v>
+        <v>925.0623937538013</v>
       </c>
       <c r="AC3" t="n">
-        <v>728.5847094853751</v>
+        <v>836.775737227162</v>
       </c>
       <c r="AD3" t="n">
-        <v>588678.8193252756</v>
+        <v>676094.5523806803</v>
       </c>
       <c r="AE3" t="n">
-        <v>805456.3312774331</v>
+        <v>925062.3937538014</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.673876724020999e-06</v>
+        <v>2.727876946881313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.900390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>728584.7094853751</v>
+        <v>836775.737227162</v>
       </c>
     </row>
   </sheetData>
@@ -45181,28 +45181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2530.538722740242</v>
+        <v>2688.100099030874</v>
       </c>
       <c r="AB2" t="n">
-        <v>3462.394719942725</v>
+        <v>3677.977146100916</v>
       </c>
       <c r="AC2" t="n">
-        <v>3131.948627372771</v>
+        <v>3326.956169350251</v>
       </c>
       <c r="AD2" t="n">
-        <v>2530538.722740242</v>
+        <v>2688100.099030874</v>
       </c>
       <c r="AE2" t="n">
-        <v>3462394.719942725</v>
+        <v>3677977.146100916</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.687608327126983e-07</v>
+        <v>1.283490578184436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.89778645833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3131948.627372771</v>
+        <v>3326956.169350252</v>
       </c>
     </row>
     <row r="3">
@@ -45287,28 +45287,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1501.726552887562</v>
+        <v>1617.801950982087</v>
       </c>
       <c r="AB3" t="n">
-        <v>2054.728521160479</v>
+        <v>2213.548001718558</v>
       </c>
       <c r="AC3" t="n">
-        <v>1858.628114930514</v>
+        <v>2002.290087168671</v>
       </c>
       <c r="AD3" t="n">
-        <v>1501726.552887562</v>
+        <v>1617801.950982087</v>
       </c>
       <c r="AE3" t="n">
-        <v>2054728.521160479</v>
+        <v>2213548.001718558</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.195210862234643e-06</v>
+        <v>1.765781585516266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.81966145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1858628.114930514</v>
+        <v>2002290.087168671</v>
       </c>
     </row>
     <row r="4">
@@ -45393,28 +45393,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1287.268016577407</v>
+        <v>1386.749112902042</v>
       </c>
       <c r="AB4" t="n">
-        <v>1761.296890538045</v>
+        <v>1897.411315325633</v>
       </c>
       <c r="AC4" t="n">
-        <v>1593.201187300805</v>
+        <v>1716.325042424461</v>
       </c>
       <c r="AD4" t="n">
-        <v>1287268.016577407</v>
+        <v>1386749.112902042</v>
       </c>
       <c r="AE4" t="n">
-        <v>1761296.890538045</v>
+        <v>1897411.315325633</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.314564538186558e-06</v>
+        <v>1.942112415346184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.384765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1593201.187300805</v>
+        <v>1716325.042424461</v>
       </c>
     </row>
     <row r="5">
@@ -45499,28 +45499,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1189.868705296498</v>
+        <v>1289.26446076656</v>
       </c>
       <c r="AB5" t="n">
-        <v>1628.030855889155</v>
+        <v>1764.028513554545</v>
       </c>
       <c r="AC5" t="n">
-        <v>1472.65387595875</v>
+        <v>1595.672108050467</v>
       </c>
       <c r="AD5" t="n">
-        <v>1189868.705296498</v>
+        <v>1289264.46076656</v>
       </c>
       <c r="AE5" t="n">
-        <v>1628030.855889155</v>
+        <v>1764028.513554545</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.375718525617365e-06</v>
+        <v>2.032460142511513e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.30078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1472653.87595875</v>
+        <v>1595672.108050467</v>
       </c>
     </row>
     <row r="6">
@@ -45605,28 +45605,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1125.052759989622</v>
+        <v>1224.533766805705</v>
       </c>
       <c r="AB6" t="n">
-        <v>1539.346820042593</v>
+        <v>1675.461122360633</v>
       </c>
       <c r="AC6" t="n">
-        <v>1392.433720024558</v>
+        <v>1515.557464366988</v>
       </c>
       <c r="AD6" t="n">
-        <v>1125052.759989623</v>
+        <v>1224533.766805705</v>
       </c>
       <c r="AE6" t="n">
-        <v>1539346.820042593</v>
+        <v>1675461.122360633</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.414616794595093e-06</v>
+        <v>2.08992769843793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.66276041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1392433.720024558</v>
+        <v>1515557.464366988</v>
       </c>
     </row>
     <row r="7">
@@ -45711,28 +45711,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1085.230544274271</v>
+        <v>1176.414444959684</v>
       </c>
       <c r="AB7" t="n">
-        <v>1484.860307668683</v>
+        <v>1609.622143336251</v>
       </c>
       <c r="AC7" t="n">
-        <v>1343.147323919314</v>
+        <v>1456.002065095106</v>
       </c>
       <c r="AD7" t="n">
-        <v>1085230.544274271</v>
+        <v>1176414.444959684</v>
       </c>
       <c r="AE7" t="n">
-        <v>1484860.307668683</v>
+        <v>1609622.143336251</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.439925288588197e-06</v>
+        <v>2.127317981660941e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.26236979166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1343147.323919314</v>
+        <v>1456002.065095106</v>
       </c>
     </row>
     <row r="8">
@@ -45817,28 +45817,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1067.510261766299</v>
+        <v>1158.694162451711</v>
       </c>
       <c r="AB8" t="n">
-        <v>1460.614635377585</v>
+        <v>1585.376471045153</v>
       </c>
       <c r="AC8" t="n">
-        <v>1321.215624562663</v>
+        <v>1434.070365738455</v>
       </c>
       <c r="AD8" t="n">
-        <v>1067510.261766299</v>
+        <v>1158694.162451711</v>
       </c>
       <c r="AE8" t="n">
-        <v>1460614.635377585</v>
+        <v>1585376.471045153</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.448098848905036e-06</v>
+        <v>2.139393442779656e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.13541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1321215.624562663</v>
+        <v>1434070.365738455</v>
       </c>
     </row>
     <row r="9">
@@ -45923,28 +45923,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1021.763278073947</v>
+        <v>1121.158944035458</v>
       </c>
       <c r="AB9" t="n">
-        <v>1398.021594075228</v>
+        <v>1534.01912927107</v>
       </c>
       <c r="AC9" t="n">
-        <v>1264.596375272318</v>
+        <v>1387.614496582808</v>
       </c>
       <c r="AD9" t="n">
-        <v>1021763.278073947</v>
+        <v>1121158.944035458</v>
       </c>
       <c r="AE9" t="n">
-        <v>1398021.594075228</v>
+        <v>1534019.12927107</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.470453043988439e-06</v>
+        <v>2.172419101501927e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.80013020833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1264596.375272318</v>
+        <v>1387614.496582808</v>
       </c>
     </row>
     <row r="10">
@@ -46029,28 +46029,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>996.9553880864052</v>
+        <v>1088.224540117838</v>
       </c>
       <c r="AB10" t="n">
-        <v>1364.078344547409</v>
+        <v>1488.956824867626</v>
       </c>
       <c r="AC10" t="n">
-        <v>1233.892621839784</v>
+        <v>1346.852875266288</v>
       </c>
       <c r="AD10" t="n">
-        <v>996955.3880864051</v>
+        <v>1088224.540117838</v>
       </c>
       <c r="AE10" t="n">
-        <v>1364078.344547409</v>
+        <v>1488956.824867626</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.48305805266983e-06</v>
+        <v>2.191041499371753e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1233892.621839784</v>
+        <v>1346852.875266288</v>
       </c>
     </row>
     <row r="11">
@@ -46135,28 +46135,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>973.7981671074526</v>
+        <v>1064.896726938294</v>
       </c>
       <c r="AB11" t="n">
-        <v>1332.393613179519</v>
+        <v>1457.038681724889</v>
       </c>
       <c r="AC11" t="n">
-        <v>1205.231836763846</v>
+        <v>1317.980954907699</v>
       </c>
       <c r="AD11" t="n">
-        <v>973798.1671074526</v>
+        <v>1064896.726938294</v>
       </c>
       <c r="AE11" t="n">
-        <v>1332393.613179519</v>
+        <v>1457038.681724889</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.492019426029255e-06</v>
+        <v>2.204280860357333e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1205231.836763846</v>
+        <v>1317980.954907699</v>
       </c>
     </row>
     <row r="12">
@@ -46241,28 +46241,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>953.2132150349714</v>
+        <v>1044.311774865812</v>
       </c>
       <c r="AB12" t="n">
-        <v>1304.228373609958</v>
+        <v>1428.873442155329</v>
       </c>
       <c r="AC12" t="n">
-        <v>1179.754648128642</v>
+        <v>1292.503766272495</v>
       </c>
       <c r="AD12" t="n">
-        <v>953213.2150349715</v>
+        <v>1044311.774865812</v>
       </c>
       <c r="AE12" t="n">
-        <v>1304228.373609958</v>
+        <v>1428873.442155329</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.500488416237065e-06</v>
+        <v>2.216792783926122e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.36393229166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1179754.648128642</v>
+        <v>1292503.766272495</v>
       </c>
     </row>
     <row r="13">
@@ -46347,28 +46347,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>935.9160378345274</v>
+        <v>1027.014597665369</v>
       </c>
       <c r="AB13" t="n">
-        <v>1280.561612666709</v>
+        <v>1405.20668121208</v>
       </c>
       <c r="AC13" t="n">
-        <v>1158.346609633309</v>
+        <v>1271.095727777162</v>
       </c>
       <c r="AD13" t="n">
-        <v>935916.0378345274</v>
+        <v>1027014.597665369</v>
       </c>
       <c r="AE13" t="n">
-        <v>1280561.612666709</v>
+        <v>1405206.68121208</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.508661976553904e-06</v>
+        <v>2.228868245044838e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.24674479166666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1158346.609633309</v>
+        <v>1271095.727777162</v>
       </c>
     </row>
     <row r="14">
@@ -46453,28 +46453,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>941.8264932038377</v>
+        <v>1032.925053034679</v>
       </c>
       <c r="AB14" t="n">
-        <v>1288.648558453888</v>
+        <v>1413.293626999258</v>
       </c>
       <c r="AC14" t="n">
-        <v>1165.661748664659</v>
+        <v>1278.410866808512</v>
       </c>
       <c r="AD14" t="n">
-        <v>941826.4932038377</v>
+        <v>1032925.053034679</v>
       </c>
       <c r="AE14" t="n">
-        <v>1288648.558453887</v>
+        <v>1413293.626999258</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.503541191777089e-06</v>
+        <v>2.221302895910221e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.32161458333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1165661.748664659</v>
+        <v>1278410.866808512</v>
       </c>
     </row>
     <row r="15">
@@ -46559,28 +46559,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>945.6639855820637</v>
+        <v>1036.762545412905</v>
       </c>
       <c r="AB15" t="n">
-        <v>1293.899184823991</v>
+        <v>1418.544253369362</v>
       </c>
       <c r="AC15" t="n">
-        <v>1170.4112626233</v>
+        <v>1283.160380767154</v>
       </c>
       <c r="AD15" t="n">
-        <v>945663.9855820637</v>
+        <v>1036762.545412905</v>
       </c>
       <c r="AE15" t="n">
-        <v>1293899.184823991</v>
+        <v>1418544.253369362</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.503639668407412e-06</v>
+        <v>2.221448383393579e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.318359375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1170411.262623301</v>
+        <v>1283160.380767154</v>
       </c>
     </row>
   </sheetData>
@@ -46856,28 +46856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3640.744823750571</v>
+        <v>3828.211854045525</v>
       </c>
       <c r="AB2" t="n">
-        <v>4981.427686181566</v>
+        <v>5237.928347492815</v>
       </c>
       <c r="AC2" t="n">
-        <v>4506.007219289879</v>
+        <v>4738.027817486511</v>
       </c>
       <c r="AD2" t="n">
-        <v>3640744.823750571</v>
+        <v>3828211.854045525</v>
       </c>
       <c r="AE2" t="n">
-        <v>4981427.686181566</v>
+        <v>5237928.347492815</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.101957866012783e-07</v>
+        <v>1.03132431633251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.49283854166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4506007.219289878</v>
+        <v>4738027.817486511</v>
       </c>
     </row>
     <row r="3">
@@ -46962,28 +46962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1872.762413054406</v>
+        <v>2000.611814810435</v>
       </c>
       <c r="AB3" t="n">
-        <v>2562.396153987644</v>
+        <v>2737.325345787774</v>
       </c>
       <c r="AC3" t="n">
-        <v>2317.844661396653</v>
+        <v>2476.07885664604</v>
       </c>
       <c r="AD3" t="n">
-        <v>1872762.413054406</v>
+        <v>2000611.814810435</v>
       </c>
       <c r="AE3" t="n">
-        <v>2562396.153987644</v>
+        <v>2737325.345787774</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.069374174132791e-06</v>
+        <v>1.552912041789291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.88671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2317844.661396652</v>
+        <v>2476078.85664604</v>
       </c>
     </row>
     <row r="4">
@@ -47068,28 +47068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1550.545477399443</v>
+        <v>1661.422254328629</v>
       </c>
       <c r="AB4" t="n">
-        <v>2121.524727416581</v>
+        <v>2273.231225149264</v>
       </c>
       <c r="AC4" t="n">
-        <v>1919.049385010598</v>
+        <v>2056.277227521081</v>
       </c>
       <c r="AD4" t="n">
-        <v>1550545.477399443</v>
+        <v>1661422.254328629</v>
       </c>
       <c r="AE4" t="n">
-        <v>2121524.727416581</v>
+        <v>2273231.225149265</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.205643702401021e-06</v>
+        <v>1.75079842851477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.62174479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1919049.385010598</v>
+        <v>2056277.227521081</v>
       </c>
     </row>
     <row r="5">
@@ -47174,28 +47174,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1420.813697553428</v>
+        <v>1523.076240295887</v>
       </c>
       <c r="AB5" t="n">
-        <v>1944.019982869071</v>
+        <v>2083.940105354284</v>
       </c>
       <c r="AC5" t="n">
-        <v>1758.485444153229</v>
+        <v>1885.051786527578</v>
       </c>
       <c r="AD5" t="n">
-        <v>1420813.697553428</v>
+        <v>1523076.240295887</v>
       </c>
       <c r="AE5" t="n">
-        <v>1944019.982869071</v>
+        <v>2083940.105354284</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.274727418681851e-06</v>
+        <v>1.851119660782283e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.23177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1758485.444153229</v>
+        <v>1885051.786527578</v>
       </c>
     </row>
     <row r="6">
@@ -47280,28 +47280,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1339.72436039653</v>
+        <v>1441.901562284417</v>
       </c>
       <c r="AB6" t="n">
-        <v>1833.069974361929</v>
+        <v>1972.873329724943</v>
       </c>
       <c r="AC6" t="n">
-        <v>1658.124348738693</v>
+        <v>1784.585068081103</v>
       </c>
       <c r="AD6" t="n">
-        <v>1339724.36039653</v>
+        <v>1441901.562284417</v>
       </c>
       <c r="AE6" t="n">
-        <v>1833069.974361929</v>
+        <v>1972873.329724943</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.319043483933427e-06</v>
+        <v>1.915474077635207e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.41796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1658124.348738693</v>
+        <v>1784585.068081103</v>
       </c>
     </row>
     <row r="7">
@@ -47386,28 +47386,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1282.446984273517</v>
+        <v>1384.709437507425</v>
       </c>
       <c r="AB7" t="n">
-        <v>1754.700541450928</v>
+        <v>1894.620541466591</v>
       </c>
       <c r="AC7" t="n">
-        <v>1587.234384512528</v>
+        <v>1713.80061610565</v>
       </c>
       <c r="AD7" t="n">
-        <v>1282446.984273517</v>
+        <v>1384709.437507425</v>
       </c>
       <c r="AE7" t="n">
-        <v>1754700.541450928</v>
+        <v>1894620.541466591</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.349220162198954e-06</v>
+        <v>1.959295714807005e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.89388020833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1587234.384512528</v>
+        <v>1713800.61610565</v>
       </c>
     </row>
     <row r="8">
@@ -47492,28 +47492,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1245.062721455273</v>
+        <v>1347.325174689181</v>
       </c>
       <c r="AB8" t="n">
-        <v>1703.549743785731</v>
+        <v>1843.469743801395</v>
       </c>
       <c r="AC8" t="n">
-        <v>1540.965347185902</v>
+        <v>1667.531578779025</v>
       </c>
       <c r="AD8" t="n">
-        <v>1245062.721455273</v>
+        <v>1347325.174689181</v>
       </c>
       <c r="AE8" t="n">
-        <v>1703549.743785731</v>
+        <v>1843469.743801395</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.37152053764675e-06</v>
+        <v>1.991679629069183e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.52278645833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1540965.347185902</v>
+        <v>1667531.578779025</v>
       </c>
     </row>
     <row r="9">
@@ -47598,28 +47598,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1205.357579469475</v>
+        <v>1299.091139371227</v>
       </c>
       <c r="AB9" t="n">
-        <v>1649.223416853524</v>
+        <v>1777.473808743914</v>
       </c>
       <c r="AC9" t="n">
-        <v>1491.823848648626</v>
+        <v>1607.834203137553</v>
       </c>
       <c r="AD9" t="n">
-        <v>1205357.579469474</v>
+        <v>1299091.139371227</v>
       </c>
       <c r="AE9" t="n">
-        <v>1649223.416853524</v>
+        <v>1777473.808743914</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.395813712602646e-06</v>
+        <v>2.026957425031386e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.12890625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1491823.848648626</v>
+        <v>1607834.203137553</v>
       </c>
     </row>
     <row r="10">
@@ -47704,28 +47704,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1197.193763210912</v>
+        <v>1290.927323112665</v>
       </c>
       <c r="AB10" t="n">
-        <v>1638.053323286404</v>
+        <v>1766.303715176795</v>
       </c>
       <c r="AC10" t="n">
-        <v>1481.719813134228</v>
+        <v>1597.730167623155</v>
       </c>
       <c r="AD10" t="n">
-        <v>1197193.763210912</v>
+        <v>1290927.323112665</v>
       </c>
       <c r="AE10" t="n">
-        <v>1638053.323286404</v>
+        <v>1766303.715176795</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.398755464257461e-06</v>
+        <v>2.031229345636183e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1481719.813134228</v>
+        <v>1597730.167623155</v>
       </c>
     </row>
     <row r="11">
@@ -47810,28 +47810,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1166.162263104368</v>
+        <v>1268.339375483705</v>
       </c>
       <c r="AB11" t="n">
-        <v>1595.594655827466</v>
+        <v>1735.397888720932</v>
       </c>
       <c r="AC11" t="n">
-        <v>1443.313341306457</v>
+        <v>1569.77394986764</v>
       </c>
       <c r="AD11" t="n">
-        <v>1166162.263104368</v>
+        <v>1268339.375483705</v>
       </c>
       <c r="AE11" t="n">
-        <v>1595594.655827466</v>
+        <v>1735397.888720932</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.410142890018038e-06</v>
+        <v>2.047765812493466e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.90755208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1443313.341306457</v>
+        <v>1569773.94986764</v>
       </c>
     </row>
     <row r="12">
@@ -47916,28 +47916,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1145.435722215703</v>
+        <v>1239.254533463476</v>
       </c>
       <c r="AB12" t="n">
-        <v>1567.235688193146</v>
+        <v>1695.602724736186</v>
       </c>
       <c r="AC12" t="n">
-        <v>1417.660913741095</v>
+        <v>1533.776780480734</v>
       </c>
       <c r="AD12" t="n">
-        <v>1145435.722215703</v>
+        <v>1239254.533463476</v>
       </c>
       <c r="AE12" t="n">
-        <v>1567235.688193146</v>
+        <v>1695602.724736186</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.419632411485185e-06</v>
+        <v>2.061546201541201e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.76106770833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1417660.913741095</v>
+        <v>1533776.780480734</v>
       </c>
     </row>
     <row r="13">
@@ -48022,28 +48022,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1128.476018933605</v>
+        <v>1222.294830181378</v>
       </c>
       <c r="AB13" t="n">
-        <v>1544.030673953275</v>
+        <v>1672.397710496315</v>
       </c>
       <c r="AC13" t="n">
-        <v>1396.670553491835</v>
+        <v>1512.786420231475</v>
       </c>
       <c r="AD13" t="n">
-        <v>1128476.018933605</v>
+        <v>1222294.830181378</v>
       </c>
       <c r="AE13" t="n">
-        <v>1544030.673953275</v>
+        <v>1672397.710496315</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.425990390868173e-06</v>
+        <v>2.070779062203184e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.66341145833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1396670.553491835</v>
+        <v>1512786.420231475</v>
       </c>
     </row>
     <row r="14">
@@ -48128,28 +48128,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1113.803892062007</v>
+        <v>1207.622703309781</v>
       </c>
       <c r="AB14" t="n">
-        <v>1523.955622679002</v>
+        <v>1652.322659222042</v>
       </c>
       <c r="AC14" t="n">
-        <v>1378.511436935667</v>
+        <v>1494.627303675307</v>
       </c>
       <c r="AD14" t="n">
-        <v>1113803.892062007</v>
+        <v>1207622.703309781</v>
       </c>
       <c r="AE14" t="n">
-        <v>1523955.622679002</v>
+        <v>1652322.659222042</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.432158579821819e-06</v>
+        <v>2.079736315084212e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.56901041666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1378511.436935667</v>
+        <v>1494627.303675307</v>
       </c>
     </row>
     <row r="15">
@@ -48234,28 +48234,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1096.389603600273</v>
+        <v>1190.037822647454</v>
       </c>
       <c r="AB15" t="n">
-        <v>1500.128624941472</v>
+        <v>1628.262249709664</v>
       </c>
       <c r="AC15" t="n">
-        <v>1356.958454420806</v>
+        <v>1472.863185877794</v>
       </c>
       <c r="AD15" t="n">
-        <v>1096389.603600273</v>
+        <v>1190037.822647454</v>
       </c>
       <c r="AE15" t="n">
-        <v>1500128.624941472</v>
+        <v>1628262.249709664</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.439370616136851e-06</v>
+        <v>2.090209410760491e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.46158854166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1356958.454420805</v>
+        <v>1472863.185877794</v>
       </c>
     </row>
     <row r="16">
@@ -48340,28 +48340,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1082.03187728832</v>
+        <v>1175.6800963355</v>
       </c>
       <c r="AB16" t="n">
-        <v>1480.483750383276</v>
+        <v>1608.617375151469</v>
       </c>
       <c r="AC16" t="n">
-        <v>1339.188459118689</v>
+        <v>1455.093190575678</v>
       </c>
       <c r="AD16" t="n">
-        <v>1082031.87728832</v>
+        <v>1175680.0963355</v>
       </c>
       <c r="AE16" t="n">
-        <v>1480483.750383276</v>
+        <v>1608617.375151469</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.443451110367724e-06</v>
+        <v>2.096134978051017e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.39973958333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1339188.459118689</v>
+        <v>1455093.190575678</v>
       </c>
     </row>
     <row r="17">
@@ -48446,28 +48446,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1064.000626428959</v>
+        <v>1157.64884547614</v>
       </c>
       <c r="AB17" t="n">
-        <v>1455.812597474853</v>
+        <v>1583.946222243046</v>
       </c>
       <c r="AC17" t="n">
-        <v>1316.871886417666</v>
+        <v>1432.776617874654</v>
       </c>
       <c r="AD17" t="n">
-        <v>1064000.626428959</v>
+        <v>1157648.84547614</v>
       </c>
       <c r="AE17" t="n">
-        <v>1455812.597474854</v>
+        <v>1583946.222243046</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.446108176378525e-06</v>
+        <v>2.099993486984383e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.36067708333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1316871.886417666</v>
+        <v>1432776.617874654</v>
       </c>
     </row>
     <row r="18">
@@ -48552,28 +48552,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1051.66896868534</v>
+        <v>1145.317187732521</v>
       </c>
       <c r="AB18" t="n">
-        <v>1438.93987931569</v>
+        <v>1567.073504083883</v>
       </c>
       <c r="AC18" t="n">
-        <v>1301.609476798604</v>
+        <v>1417.514208255593</v>
       </c>
       <c r="AD18" t="n">
-        <v>1051668.96868534</v>
+        <v>1145317.187732521</v>
       </c>
       <c r="AE18" t="n">
-        <v>1438939.87931569</v>
+        <v>1567073.504083883</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.449144823248012e-06</v>
+        <v>2.104403211479658e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.31510416666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1301609.476798604</v>
+        <v>1417514.208255593</v>
       </c>
     </row>
     <row r="19">
@@ -48658,28 +48658,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1049.433352116883</v>
+        <v>1143.081571164064</v>
       </c>
       <c r="AB19" t="n">
-        <v>1435.881010098286</v>
+        <v>1564.014634866478</v>
       </c>
       <c r="AC19" t="n">
-        <v>1298.842541766159</v>
+        <v>1414.747273223148</v>
       </c>
       <c r="AD19" t="n">
-        <v>1049433.352116883</v>
+        <v>1143081.571164064</v>
       </c>
       <c r="AE19" t="n">
-        <v>1435881.010098286</v>
+        <v>1564014.634866478</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.45094783232677e-06</v>
+        <v>2.107021485398728e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.2890625</v>
       </c>
       <c r="AH19" t="n">
-        <v>1298842.541766159</v>
+        <v>1414747.273223148</v>
       </c>
     </row>
     <row r="20">
@@ -48764,28 +48764,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1049.632898857715</v>
+        <v>1143.281117904896</v>
       </c>
       <c r="AB20" t="n">
-        <v>1436.154038752473</v>
+        <v>1564.287663520666</v>
       </c>
       <c r="AC20" t="n">
-        <v>1299.089512948789</v>
+        <v>1414.994244405778</v>
       </c>
       <c r="AD20" t="n">
-        <v>1049632.898857715</v>
+        <v>1143281.117904896</v>
       </c>
       <c r="AE20" t="n">
-        <v>1436154.038752473</v>
+        <v>1564287.663520666</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.452181470117499e-06</v>
+        <v>2.108812935974933e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.27278645833333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1299089.512948789</v>
+        <v>1414994.244405778</v>
       </c>
     </row>
     <row r="21">
@@ -48870,28 +48870,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1053.10369278254</v>
+        <v>1146.751911829721</v>
       </c>
       <c r="AB21" t="n">
-        <v>1440.902932121039</v>
+        <v>1569.036556889232</v>
       </c>
       <c r="AC21" t="n">
-        <v>1303.385178599373</v>
+        <v>1419.289910056361</v>
       </c>
       <c r="AD21" t="n">
-        <v>1053103.69278254</v>
+        <v>1146751.911829721</v>
       </c>
       <c r="AE21" t="n">
-        <v>1440902.932121039</v>
+        <v>1569036.556889232</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.45227636533217e-06</v>
+        <v>2.108950739865411e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.26953125</v>
       </c>
       <c r="AH21" t="n">
-        <v>1303385.178599373</v>
+        <v>1419289.910056361</v>
       </c>
     </row>
     <row r="22">
@@ -48976,28 +48976,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1057.374054104467</v>
+        <v>1151.022273151648</v>
       </c>
       <c r="AB22" t="n">
-        <v>1446.745828876745</v>
+        <v>1574.879453644938</v>
       </c>
       <c r="AC22" t="n">
-        <v>1308.670437489272</v>
+        <v>1424.57516894626</v>
       </c>
       <c r="AD22" t="n">
-        <v>1057374.054104467</v>
+        <v>1151022.273151648</v>
       </c>
       <c r="AE22" t="n">
-        <v>1446745.828876745</v>
+        <v>1574879.453644938</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.452181470117499e-06</v>
+        <v>2.108812935974933e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.27278645833333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1308670.437489272</v>
+        <v>1424575.16894626</v>
       </c>
     </row>
   </sheetData>
@@ -49273,28 +49273,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>538.1391727536272</v>
+        <v>623.4418890507399</v>
       </c>
       <c r="AB2" t="n">
-        <v>736.305757186258</v>
+        <v>853.0206969142109</v>
       </c>
       <c r="AC2" t="n">
-        <v>666.0337691320213</v>
+        <v>771.6095988227852</v>
       </c>
       <c r="AD2" t="n">
-        <v>538139.1727536272</v>
+        <v>623441.8890507398</v>
       </c>
       <c r="AE2" t="n">
-        <v>736305.757186258</v>
+        <v>853020.6969142109</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.645631949172464e-06</v>
+        <v>2.743170414095812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.12109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>666033.7691320213</v>
+        <v>771609.5988227852</v>
       </c>
     </row>
   </sheetData>
@@ -49570,28 +49570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1556.88970794416</v>
+        <v>1683.71443050205</v>
       </c>
       <c r="AB2" t="n">
-        <v>2130.205183535561</v>
+        <v>2303.732364051143</v>
       </c>
       <c r="AC2" t="n">
-        <v>1926.901390580679</v>
+        <v>2083.867380534781</v>
       </c>
       <c r="AD2" t="n">
-        <v>1556889.70794416</v>
+        <v>1683714.43050205</v>
       </c>
       <c r="AE2" t="n">
-        <v>2130205.183535561</v>
+        <v>2303732.364051143</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.120053352658749e-06</v>
+        <v>1.704616614093101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.37434895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1926901.390580679</v>
+        <v>2083867.380534781</v>
       </c>
     </row>
     <row r="3">
@@ -49676,28 +49676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1077.72169982281</v>
+        <v>1180.718799453252</v>
       </c>
       <c r="AB3" t="n">
-        <v>1474.586375423356</v>
+        <v>1615.511551049069</v>
       </c>
       <c r="AC3" t="n">
-        <v>1333.853921347926</v>
+        <v>1461.329396001648</v>
       </c>
       <c r="AD3" t="n">
-        <v>1077721.69982281</v>
+        <v>1180718.799453252</v>
       </c>
       <c r="AE3" t="n">
-        <v>1474586.375423355</v>
+        <v>1615511.551049069</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.39094803308158e-06</v>
+        <v>2.116893022017829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.45963541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1333853.921347926</v>
+        <v>1461329.396001648</v>
       </c>
     </row>
     <row r="4">
@@ -49782,28 +49782,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>951.2154383051087</v>
+        <v>1046.440589160327</v>
       </c>
       <c r="AB4" t="n">
-        <v>1301.494927352471</v>
+        <v>1431.786179789742</v>
       </c>
       <c r="AC4" t="n">
-        <v>1177.282078145553</v>
+        <v>1295.138516315133</v>
       </c>
       <c r="AD4" t="n">
-        <v>951215.4383051087</v>
+        <v>1046440.589160327</v>
       </c>
       <c r="AE4" t="n">
-        <v>1301494.927352471</v>
+        <v>1431786.179789742</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.483963567640345e-06</v>
+        <v>2.25845397998581e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.92643229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1177282.078145553</v>
+        <v>1295138.516315133</v>
       </c>
     </row>
     <row r="5">
@@ -49888,28 +49888,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>891.3241910149649</v>
+        <v>978.6068904029188</v>
       </c>
       <c r="AB5" t="n">
-        <v>1219.549080594744</v>
+        <v>1338.973120538275</v>
       </c>
       <c r="AC5" t="n">
-        <v>1103.157027990666</v>
+        <v>1211.183405174679</v>
       </c>
       <c r="AD5" t="n">
-        <v>891324.1910149648</v>
+        <v>978606.8904029188</v>
       </c>
       <c r="AE5" t="n">
-        <v>1219549.080594744</v>
+        <v>1338973.120538275</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.532143524305054e-06</v>
+        <v>2.331779375068102e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.20377604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1103157.027990666</v>
+        <v>1211183.405174679</v>
       </c>
     </row>
     <row r="6">
@@ -49994,28 +49994,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>833.9935580127836</v>
+        <v>921.3615087467583</v>
       </c>
       <c r="AB6" t="n">
-        <v>1141.106779272137</v>
+        <v>1260.647463868317</v>
       </c>
       <c r="AC6" t="n">
-        <v>1032.201149811827</v>
+        <v>1140.333039246553</v>
       </c>
       <c r="AD6" t="n">
-        <v>833993.5580127836</v>
+        <v>921361.5087467583</v>
       </c>
       <c r="AE6" t="n">
-        <v>1141106.779272137</v>
+        <v>1260647.463868317</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.566736942213988e-06</v>
+        <v>2.3844273268517e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.71549479166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1032201.149811827</v>
+        <v>1140333.039246553</v>
       </c>
     </row>
     <row r="7">
@@ -50100,28 +50100,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>805.5137045896507</v>
+        <v>892.8816553236253</v>
       </c>
       <c r="AB7" t="n">
-        <v>1102.139387376149</v>
+        <v>1221.680071972329</v>
       </c>
       <c r="AC7" t="n">
-        <v>996.9527511073137</v>
+        <v>1105.084640542039</v>
       </c>
       <c r="AD7" t="n">
-        <v>805513.7045896507</v>
+        <v>892881.6553236253</v>
       </c>
       <c r="AE7" t="n">
-        <v>1102139.387376149</v>
+        <v>1221680.071972329</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.580009945460014e-06</v>
+        <v>2.404627598381963e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.533203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>996952.7511073137</v>
+        <v>1105084.640542039</v>
       </c>
     </row>
     <row r="8">
@@ -50206,28 +50206,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>801.8737141374145</v>
+        <v>889.0710726707969</v>
       </c>
       <c r="AB8" t="n">
-        <v>1097.158991854354</v>
+        <v>1216.466264675688</v>
       </c>
       <c r="AC8" t="n">
-        <v>992.4476775440902</v>
+        <v>1100.368431696164</v>
       </c>
       <c r="AD8" t="n">
-        <v>801873.7141374145</v>
+        <v>889071.0726707969</v>
       </c>
       <c r="AE8" t="n">
-        <v>1097158.991854354</v>
+        <v>1216466.264675688</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.582622741374586e-06</v>
+        <v>2.408604029785558e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.49739583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>992447.6775440902</v>
+        <v>1100368.431696164</v>
       </c>
     </row>
     <row r="9">
@@ -50312,28 +50312,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>806.3478859764579</v>
+        <v>893.5452445098401</v>
       </c>
       <c r="AB9" t="n">
-        <v>1103.280751151064</v>
+        <v>1222.588023972397</v>
       </c>
       <c r="AC9" t="n">
-        <v>997.985184725465</v>
+        <v>1105.905938877539</v>
       </c>
       <c r="AD9" t="n">
-        <v>806347.8859764579</v>
+        <v>893545.2445098402</v>
       </c>
       <c r="AE9" t="n">
-        <v>1103280.751151064</v>
+        <v>1222588.023972397</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.582622741374586e-06</v>
+        <v>2.408604029785558e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.49739583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>997985.184725465</v>
+        <v>1105905.938877539</v>
       </c>
     </row>
   </sheetData>
@@ -50609,28 +50609,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2104.113767397233</v>
+        <v>2242.854275652746</v>
       </c>
       <c r="AB2" t="n">
-        <v>2878.941283500915</v>
+        <v>3068.772167695523</v>
       </c>
       <c r="AC2" t="n">
-        <v>2604.179168023055</v>
+        <v>2775.892859059334</v>
       </c>
       <c r="AD2" t="n">
-        <v>2104113.767397233</v>
+        <v>2242854.275652746</v>
       </c>
       <c r="AE2" t="n">
-        <v>2878941.283500915</v>
+        <v>3068772.167695522</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.607436023602839e-07</v>
+        <v>1.434304398176266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.09505208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2604179.168023055</v>
+        <v>2775892.859059334</v>
       </c>
     </row>
     <row r="3">
@@ -50715,28 +50715,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1327.745401403717</v>
+        <v>1441.90181583701</v>
       </c>
       <c r="AB3" t="n">
-        <v>1816.67983419359</v>
+        <v>1972.873676646787</v>
       </c>
       <c r="AC3" t="n">
-        <v>1643.298460544314</v>
+        <v>1784.585381893213</v>
       </c>
       <c r="AD3" t="n">
-        <v>1327745.401403717</v>
+        <v>1441901.81583701</v>
       </c>
       <c r="AE3" t="n">
-        <v>1816679.83419359</v>
+        <v>1972873.676646787</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.267239728542671e-06</v>
+        <v>1.891875742630068e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.84635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1643298.460544314</v>
+        <v>1784585.381893213</v>
       </c>
     </row>
     <row r="4">
@@ -50821,28 +50821,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1152.035928011952</v>
+        <v>1258.026121292215</v>
       </c>
       <c r="AB4" t="n">
-        <v>1576.266380944103</v>
+        <v>1721.286839347473</v>
       </c>
       <c r="AC4" t="n">
-        <v>1425.829729850557</v>
+        <v>1557.009639241401</v>
       </c>
       <c r="AD4" t="n">
-        <v>1152035.928011952</v>
+        <v>1258026.121292215</v>
       </c>
       <c r="AE4" t="n">
-        <v>1576266.380944103</v>
+        <v>1721286.839347473</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.37691825038732e-06</v>
+        <v>2.0556159807964e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.7890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1425829.729850557</v>
+        <v>1557009.639241401</v>
       </c>
     </row>
     <row r="5">
@@ -50927,28 +50927,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1068.504661102883</v>
+        <v>1166.413974084686</v>
       </c>
       <c r="AB5" t="n">
-        <v>1461.975216419702</v>
+        <v>1595.939057895441</v>
       </c>
       <c r="AC5" t="n">
-        <v>1322.446353659708</v>
+        <v>1443.624874124436</v>
       </c>
       <c r="AD5" t="n">
-        <v>1068504.661102883</v>
+        <v>1166413.974084686</v>
       </c>
       <c r="AE5" t="n">
-        <v>1461975.216419702</v>
+        <v>1595939.057895441</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432964981274906e-06</v>
+        <v>2.139288744703415e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.85807291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1322446.353659708</v>
+        <v>1443624.874124436</v>
       </c>
     </row>
     <row r="6">
@@ -51033,28 +51033,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1019.485964139978</v>
+        <v>1109.2291454773</v>
       </c>
       <c r="AB6" t="n">
-        <v>1394.905672682771</v>
+        <v>1517.696252578231</v>
       </c>
       <c r="AC6" t="n">
-        <v>1261.777833044334</v>
+        <v>1372.849452332232</v>
       </c>
       <c r="AD6" t="n">
-        <v>1019485.964139978</v>
+        <v>1109229.1454773</v>
       </c>
       <c r="AE6" t="n">
-        <v>1394905.672682771</v>
+        <v>1517696.252578231</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.467478497781984e-06</v>
+        <v>2.190814342585113e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.32096354166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1261777.833044334</v>
+        <v>1372849.452332232</v>
       </c>
     </row>
     <row r="7">
@@ -51139,28 +51139,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>962.1530794492236</v>
+        <v>1059.977051576455</v>
       </c>
       <c r="AB7" t="n">
-        <v>1316.460290500521</v>
+        <v>1450.307364854062</v>
       </c>
       <c r="AC7" t="n">
-        <v>1190.819168038772</v>
+        <v>1311.892065471561</v>
       </c>
       <c r="AD7" t="n">
-        <v>962153.0794492236</v>
+        <v>1059977.051576455</v>
       </c>
       <c r="AE7" t="n">
-        <v>1316460.290500521</v>
+        <v>1450307.364854062</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.502696371768798e-06</v>
+        <v>2.243391483280724e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1190819.168038772</v>
+        <v>1311892.065471561</v>
       </c>
     </row>
     <row r="8">
@@ -51245,28 +51245,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>944.9508112978639</v>
+        <v>1034.779243981207</v>
       </c>
       <c r="AB8" t="n">
-        <v>1292.923388305321</v>
+        <v>1415.830612853429</v>
       </c>
       <c r="AC8" t="n">
-        <v>1169.528594754833</v>
+        <v>1280.705726293443</v>
       </c>
       <c r="AD8" t="n">
-        <v>944950.8112978638</v>
+        <v>1034779.243981207</v>
       </c>
       <c r="AE8" t="n">
-        <v>1292923.388305321</v>
+        <v>1415830.612853429</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.507727496624057e-06</v>
+        <v>2.250902503380097e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.72526041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1169528.594754833</v>
+        <v>1280705.726293443</v>
       </c>
     </row>
     <row r="9">
@@ -51351,28 +51351,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>916.2978527458872</v>
+        <v>1006.12628542923</v>
       </c>
       <c r="AB9" t="n">
-        <v>1253.719146335189</v>
+        <v>1376.626370883298</v>
       </c>
       <c r="AC9" t="n">
-        <v>1134.065950614831</v>
+        <v>1245.243082153442</v>
       </c>
       <c r="AD9" t="n">
-        <v>916297.8527458872</v>
+        <v>1006126.28542923</v>
       </c>
       <c r="AE9" t="n">
-        <v>1253719.146335189</v>
+        <v>1376626.370883298</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.521110288739046e-06</v>
+        <v>2.270881816844429e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.533203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1134065.950614831</v>
+        <v>1245243.082153442</v>
       </c>
     </row>
     <row r="10">
@@ -51457,28 +51457,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>891.9097739275396</v>
+        <v>981.5676144102904</v>
       </c>
       <c r="AB10" t="n">
-        <v>1220.350300969824</v>
+        <v>1343.024113743085</v>
       </c>
       <c r="AC10" t="n">
-        <v>1103.881781017668</v>
+        <v>1214.847777273627</v>
       </c>
       <c r="AD10" t="n">
-        <v>891909.7739275396</v>
+        <v>981567.6144102904</v>
       </c>
       <c r="AE10" t="n">
-        <v>1220350.300969824</v>
+        <v>1343024.113743085</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.529461955998776e-06</v>
+        <v>2.283350110209388e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.416015625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1103881.781017668</v>
+        <v>1214847.777273627</v>
       </c>
     </row>
     <row r="11">
@@ -51563,28 +51563,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>885.4280282072345</v>
+        <v>975.0858686899854</v>
       </c>
       <c r="AB11" t="n">
-        <v>1211.481690520863</v>
+        <v>1334.155503294124</v>
       </c>
       <c r="AC11" t="n">
-        <v>1095.859578302782</v>
+        <v>1206.825574558742</v>
       </c>
       <c r="AD11" t="n">
-        <v>885428.0282072346</v>
+        <v>975085.8686899855</v>
       </c>
       <c r="AE11" t="n">
-        <v>1211481.690520863</v>
+        <v>1334155.503294125</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.533788723374299e-06</v>
+        <v>2.289809587494849e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.35416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1095859.578302782</v>
+        <v>1206825.574558742</v>
       </c>
     </row>
     <row r="12">
@@ -51669,28 +51669,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>889.3364048114697</v>
+        <v>978.9942452942205</v>
       </c>
       <c r="AB12" t="n">
-        <v>1216.829303816184</v>
+        <v>1339.503116589446</v>
       </c>
       <c r="AC12" t="n">
-        <v>1100.696822890621</v>
+        <v>1211.66281914658</v>
       </c>
       <c r="AD12" t="n">
-        <v>889336.4048114697</v>
+        <v>978994.2452942205</v>
       </c>
       <c r="AE12" t="n">
-        <v>1216829.303816184</v>
+        <v>1339503.116589446</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.533285610888774e-06</v>
+        <v>2.289058485484912e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.36393229166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1100696.822890621</v>
+        <v>1211662.81914658</v>
       </c>
     </row>
   </sheetData>
